--- a/test/commands/FillRegression/ExpectedResults/Test_FillRegression_Streamflow_Month_MonthlyEquations_excel.xlsx
+++ b/test/commands/FillRegression/ExpectedResults/Test_FillRegression_Streamflow_Month_MonthlyEquations_excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\steve\cdss-dev\TSTool\git-repos\cdss-app-tstool-test\test\commands\FillRegression\ExpectedResults\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5223B8AA-5095-4DA8-80FA-1A10FFDD7B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="59415" yWindow="660" windowWidth="25860" windowHeight="15090" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -12,7 +18,20 @@
     <sheet name="Calc" sheetId="3" r:id="rId3"/>
     <sheet name="Final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1681,7 +1700,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -1714,9 +1733,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1729,14 +1747,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1774,7 +1795,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1846,7 +1867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2019,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2059,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:NI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3983,2964 +4004,2940 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="18.7109375" style="1" customWidth="1"/>
-    <col min="21" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="9.140625" style="1"/>
-    <col min="38" max="38" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.140625" style="1"/>
-    <col min="48" max="48" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="59" width="9.140625" style="1"/>
-    <col min="60" max="60" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" style="1"/>
-    <col min="62" max="62" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="86" width="9.140625" style="1"/>
-    <col min="87" max="87" width="15.5703125" style="1" customWidth="1"/>
-    <col min="88" max="95" width="9.140625" style="1"/>
-    <col min="96" max="96" width="14.42578125" style="1" customWidth="1"/>
-    <col min="97" max="125" width="9.140625" style="1"/>
-    <col min="126" max="126" width="9.140625" style="1" customWidth="1"/>
-    <col min="127" max="146" width="9.140625" style="1"/>
-    <col min="147" max="147" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="176" width="9.140625" style="1"/>
-    <col min="177" max="177" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="206" width="9.140625" style="1"/>
-    <col min="207" max="207" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="11.28515625" style="1" customWidth="1"/>
-    <col min="209" max="236" width="9.140625" style="1"/>
-    <col min="237" max="237" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="254" width="9.140625" style="1"/>
-    <col min="255" max="255" width="13.7109375" style="1" customWidth="1"/>
-    <col min="256" max="256" width="15.28515625" style="1" customWidth="1"/>
-    <col min="257" max="257" width="9.140625" style="1"/>
-    <col min="258" max="258" width="13.140625" style="1" customWidth="1"/>
-    <col min="259" max="266" width="9.140625" style="1"/>
-    <col min="267" max="267" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="361" width="9.140625" style="1"/>
-    <col min="362" max="362" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="363" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.5703125" customWidth="1"/>
+    <col min="96" max="96" width="14.42578125" customWidth="1"/>
+    <col min="126" max="126" width="9.140625" customWidth="1"/>
+    <col min="147" max="147" width="10" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="11" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="11.28515625" customWidth="1"/>
+    <col min="237" max="237" width="10" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="13.7109375" customWidth="1"/>
+    <col min="256" max="256" width="15.28515625" customWidth="1"/>
+    <col min="258" max="258" width="13.140625" customWidth="1"/>
+    <col min="267" max="267" width="10" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>173</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>176</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>177</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>178</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>180</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>181</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>186</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>187</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>188</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s">
         <v>189</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>190</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>191</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s">
         <v>192</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>193</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>194</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>195</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>196</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s">
         <v>197</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>198</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s">
         <v>199</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s">
         <v>200</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s">
         <v>201</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s">
         <v>202</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s">
         <v>203</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>204</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" t="s">
         <v>205</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" t="s">
         <v>206</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>207</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" t="s">
         <v>208</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" t="s">
         <v>209</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" t="s">
         <v>210</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" t="s">
         <v>211</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s">
         <v>212</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" t="s">
         <v>213</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" t="s">
         <v>214</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" t="s">
         <v>215</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" t="s">
         <v>216</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" t="s">
         <v>217</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" t="s">
         <v>218</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" t="s">
         <v>219</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" t="s">
         <v>220</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" t="s">
         <v>221</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" t="s">
         <v>223</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" t="s">
         <v>224</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" t="s">
         <v>225</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" t="s">
         <v>226</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" t="s">
         <v>227</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" t="s">
         <v>228</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" t="s">
         <v>229</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" t="s">
         <v>230</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" t="s">
         <v>231</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" t="s">
         <v>232</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" t="s">
         <v>233</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" t="s">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" t="s">
         <v>235</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" t="s">
         <v>236</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" t="s">
         <v>237</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" t="s">
         <v>238</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" t="s">
         <v>239</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" t="s">
         <v>240</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" t="s">
         <v>241</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" t="s">
         <v>242</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" t="s">
         <v>243</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" t="s">
         <v>244</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" t="s">
         <v>245</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" t="s">
         <v>246</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" t="s">
         <v>247</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" t="s">
         <v>248</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" t="s">
         <v>249</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" t="s">
         <v>250</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" t="s">
         <v>251</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" t="s">
         <v>252</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" t="s">
         <v>253</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" t="s">
         <v>254</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" t="s">
         <v>255</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" t="s">
         <v>256</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" t="s">
         <v>257</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" t="s">
         <v>258</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" t="s">
         <v>259</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" t="s">
         <v>260</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" t="s">
         <v>261</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" t="s">
         <v>262</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" t="s">
         <v>263</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" t="s">
         <v>264</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DF1" t="s">
         <v>265</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DG1" t="s">
         <v>266</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DH1" t="s">
         <v>267</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DI1" t="s">
         <v>268</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DJ1" t="s">
         <v>269</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DK1" t="s">
         <v>270</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DL1" t="s">
         <v>271</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DM1" t="s">
         <v>272</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DN1" t="s">
         <v>273</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DO1" t="s">
         <v>274</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DP1" t="s">
         <v>275</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DQ1" t="s">
         <v>276</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DR1" t="s">
         <v>277</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DS1" t="s">
         <v>278</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DT1" t="s">
         <v>279</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DU1" t="s">
         <v>280</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DV1" t="s">
         <v>281</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DW1" t="s">
         <v>282</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DX1" t="s">
         <v>283</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DY1" t="s">
         <v>284</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="DZ1" t="s">
         <v>285</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EA1" t="s">
         <v>286</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EB1" t="s">
         <v>287</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EC1" t="s">
         <v>288</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="ED1" t="s">
         <v>289</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EE1" t="s">
         <v>290</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EF1" t="s">
         <v>291</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EG1" t="s">
         <v>292</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EH1" t="s">
         <v>293</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EI1" t="s">
         <v>294</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EJ1" t="s">
         <v>295</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EK1" t="s">
         <v>296</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EL1" t="s">
         <v>297</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EM1" t="s">
         <v>298</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EN1" t="s">
         <v>299</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EO1" t="s">
         <v>300</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EP1" t="s">
         <v>301</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="EQ1" t="s">
         <v>302</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ER1" t="s">
         <v>303</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ES1" t="s">
         <v>304</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="ET1" t="s">
         <v>305</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EU1" t="s">
         <v>306</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EV1" t="s">
         <v>307</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EW1" t="s">
         <v>308</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EX1" t="s">
         <v>309</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EY1" t="s">
         <v>310</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="EZ1" t="s">
         <v>311</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FA1" t="s">
         <v>312</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FB1" t="s">
         <v>313</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FC1" t="s">
         <v>314</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FD1" t="s">
         <v>315</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FE1" t="s">
         <v>316</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FF1" t="s">
         <v>317</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FG1" t="s">
         <v>318</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FH1" t="s">
         <v>319</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FI1" t="s">
         <v>320</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FJ1" t="s">
         <v>321</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FK1" t="s">
         <v>322</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FL1" t="s">
         <v>323</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FM1" t="s">
         <v>324</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FN1" t="s">
         <v>325</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FO1" t="s">
         <v>326</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FP1" t="s">
         <v>327</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FQ1" t="s">
         <v>328</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FR1" t="s">
         <v>329</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FS1" t="s">
         <v>330</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FT1" t="s">
         <v>331</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FU1" t="s">
         <v>332</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FV1" t="s">
         <v>333</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FW1" t="s">
         <v>334</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FX1" t="s">
         <v>335</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="FY1" t="s">
         <v>336</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="FZ1" t="s">
         <v>337</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GA1" t="s">
         <v>338</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GB1" t="s">
         <v>339</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GC1" t="s">
         <v>340</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GD1" t="s">
         <v>341</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GE1" t="s">
         <v>342</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GF1" t="s">
         <v>343</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GG1" t="s">
         <v>344</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GH1" t="s">
         <v>345</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GI1" t="s">
         <v>346</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GJ1" t="s">
         <v>347</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GK1" t="s">
         <v>348</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GL1" t="s">
         <v>349</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GM1" t="s">
         <v>350</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GN1" t="s">
         <v>351</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GO1" t="s">
         <v>352</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GP1" t="s">
         <v>353</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="GQ1" t="s">
         <v>354</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="GR1" t="s">
         <v>355</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="GS1" t="s">
         <v>356</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="GT1" t="s">
         <v>357</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="GU1" t="s">
         <v>358</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GV1" t="s">
         <v>359</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="GW1" t="s">
         <v>360</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="GX1" t="s">
         <v>361</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="GY1" t="s">
         <v>362</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="GZ1" t="s">
         <v>363</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HA1" t="s">
         <v>364</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HB1" t="s">
         <v>365</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="HC1" t="s">
         <v>366</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HD1" t="s">
         <v>367</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HE1" t="s">
         <v>368</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HF1" t="s">
         <v>369</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HG1" t="s">
         <v>370</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HH1" t="s">
         <v>371</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HI1" t="s">
         <v>372</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HJ1" t="s">
         <v>373</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HK1" t="s">
         <v>374</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HL1" t="s">
         <v>375</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HM1" t="s">
         <v>376</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HN1" t="s">
         <v>377</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HO1" t="s">
         <v>378</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HP1" t="s">
         <v>379</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HQ1" t="s">
         <v>380</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HR1" t="s">
         <v>381</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HS1" t="s">
         <v>382</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HT1" t="s">
         <v>383</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HU1" t="s">
         <v>384</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HV1" t="s">
         <v>385</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="HW1" t="s">
         <v>386</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="HX1" t="s">
         <v>387</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="HY1" t="s">
         <v>388</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="HZ1" t="s">
         <v>389</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IA1" t="s">
         <v>390</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IB1" t="s">
         <v>391</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="IC1" t="s">
         <v>392</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="ID1" t="s">
         <v>393</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="IE1" t="s">
         <v>394</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IF1" t="s">
         <v>395</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="IG1" t="s">
         <v>396</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="IH1" t="s">
         <v>397</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="II1" t="s">
         <v>398</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IJ1" t="s">
         <v>399</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="IK1" t="s">
         <v>400</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IL1" t="s">
         <v>401</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="IM1" t="s">
         <v>402</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IN1" t="s">
         <v>403</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="IO1" t="s">
         <v>404</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IP1" t="s">
         <v>405</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="IQ1" t="s">
         <v>406</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IR1" t="s">
         <v>407</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IS1" t="s">
         <v>408</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IT1" t="s">
         <v>409</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IU1" t="s">
         <v>410</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IV1" t="s">
         <v>411</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="IW1" t="s">
         <v>412</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="IX1" t="s">
         <v>413</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="IY1" t="s">
         <v>414</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="IZ1" t="s">
         <v>415</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JA1" t="s">
         <v>416</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JB1" t="s">
         <v>417</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JC1" t="s">
         <v>418</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JD1" t="s">
         <v>419</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="JE1" t="s">
         <v>420</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JF1" t="s">
         <v>421</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c r="JG1" t="s">
         <v>422</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JH1" t="s">
         <v>423</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="JI1" t="s">
         <v>424</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JJ1" t="s">
         <v>425</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JK1" t="s">
         <v>426</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JL1" t="s">
         <v>427</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="JM1" t="s">
         <v>428</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JN1" t="s">
         <v>429</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JO1" t="s">
         <v>430</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JP1" t="s">
         <v>431</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="JQ1" t="s">
         <v>432</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JR1" t="s">
         <v>433</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="JS1" t="s">
         <v>434</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c r="JT1" t="s">
         <v>435</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c r="JU1" t="s">
         <v>436</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c r="JV1" t="s">
         <v>437</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c r="JW1" t="s">
         <v>438</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c r="JX1" t="s">
         <v>439</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c r="JY1" t="s">
         <v>440</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c r="JZ1" t="s">
         <v>441</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KA1" t="s">
         <v>442</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KB1" t="s">
         <v>443</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c r="KC1" t="s">
         <v>444</v>
       </c>
-      <c r="KD1" s="1" t="s">
+      <c r="KD1" t="s">
         <v>445</v>
       </c>
-      <c r="KE1" s="1" t="s">
+      <c r="KE1" t="s">
         <v>446</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c r="KF1" t="s">
         <v>447</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c r="KG1" t="s">
         <v>448</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="KH1" t="s">
         <v>449</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="KI1" t="s">
         <v>450</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c r="KJ1" t="s">
         <v>451</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c r="KK1" t="s">
         <v>452</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c r="KL1" t="s">
         <v>453</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c r="KM1" t="s">
         <v>454</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c r="KN1" t="s">
         <v>455</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="KO1" t="s">
         <v>456</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c r="KP1" t="s">
         <v>457</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="KQ1" t="s">
         <v>458</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="KR1" t="s">
         <v>459</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="KS1" t="s">
         <v>460</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KT1" t="s">
         <v>461</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="KU1" t="s">
         <v>462</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c r="KV1" t="s">
         <v>463</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c r="KW1" t="s">
         <v>464</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c r="KX1" t="s">
         <v>465</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c r="KY1" t="s">
         <v>466</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c r="KZ1" t="s">
         <v>467</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c r="LA1" t="s">
         <v>468</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c r="LB1" t="s">
         <v>469</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c r="LC1" t="s">
         <v>470</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c r="LD1" t="s">
         <v>471</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c r="LE1" t="s">
         <v>472</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c r="LF1" t="s">
         <v>473</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="LG1" t="s">
         <v>474</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c r="LH1" t="s">
         <v>475</v>
       </c>
-      <c r="LI1" s="1" t="s">
+      <c r="LI1" t="s">
         <v>476</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="LJ1" t="s">
         <v>477</v>
       </c>
-      <c r="LK1" s="1" t="s">
+      <c r="LK1" t="s">
         <v>478</v>
       </c>
-      <c r="LL1" s="1" t="s">
+      <c r="LL1" t="s">
         <v>479</v>
       </c>
-      <c r="LM1" s="1" t="s">
+      <c r="LM1" t="s">
         <v>480</v>
       </c>
-      <c r="LN1" s="1" t="s">
+      <c r="LN1" t="s">
         <v>481</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="LO1" t="s">
         <v>482</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LP1" t="s">
         <v>483</v>
       </c>
-      <c r="LQ1" s="1" t="s">
+      <c r="LQ1" t="s">
         <v>484</v>
       </c>
-      <c r="LR1" s="1" t="s">
+      <c r="LR1" t="s">
         <v>485</v>
       </c>
-      <c r="LS1" s="1" t="s">
+      <c r="LS1" t="s">
         <v>486</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="LT1" t="s">
         <v>487</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="LU1" t="s">
         <v>488</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="LV1" t="s">
         <v>489</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="LW1" t="s">
         <v>490</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c r="LX1" t="s">
         <v>491</v>
       </c>
-      <c r="LY1" s="1" t="s">
+      <c r="LY1" t="s">
         <v>492</v>
       </c>
-      <c r="LZ1" s="1" t="s">
+      <c r="LZ1" t="s">
         <v>493</v>
       </c>
-      <c r="MA1" s="1" t="s">
+      <c r="MA1" t="s">
         <v>494</v>
       </c>
-      <c r="MB1" s="1" t="s">
+      <c r="MB1" t="s">
         <v>495</v>
       </c>
-      <c r="MC1" s="1" t="s">
+      <c r="MC1" t="s">
         <v>496</v>
       </c>
-      <c r="MD1" s="1" t="s">
+      <c r="MD1" t="s">
         <v>497</v>
       </c>
-      <c r="ME1" s="1" t="s">
+      <c r="ME1" t="s">
         <v>498</v>
       </c>
-      <c r="MF1" s="1" t="s">
+      <c r="MF1" t="s">
         <v>499</v>
       </c>
-      <c r="MG1" s="1" t="s">
+      <c r="MG1" t="s">
         <v>500</v>
       </c>
-      <c r="MH1" s="1" t="s">
+      <c r="MH1" t="s">
         <v>501</v>
       </c>
-      <c r="MI1" s="1" t="s">
+      <c r="MI1" t="s">
         <v>502</v>
       </c>
-      <c r="MJ1" s="1" t="s">
+      <c r="MJ1" t="s">
         <v>503</v>
       </c>
-      <c r="MK1" s="1" t="s">
+      <c r="MK1" t="s">
         <v>504</v>
       </c>
-      <c r="ML1" s="1" t="s">
+      <c r="ML1" t="s">
         <v>505</v>
       </c>
-      <c r="MM1" s="1" t="s">
+      <c r="MM1" t="s">
         <v>506</v>
       </c>
-      <c r="MN1" s="1" t="s">
+      <c r="MN1" t="s">
         <v>507</v>
       </c>
-      <c r="MO1" s="1" t="s">
+      <c r="MO1" t="s">
         <v>508</v>
       </c>
-      <c r="MP1" s="1" t="s">
+      <c r="MP1" t="s">
         <v>509</v>
       </c>
-      <c r="MQ1" s="1" t="s">
+      <c r="MQ1" t="s">
         <v>510</v>
       </c>
-      <c r="MR1" s="1" t="s">
+      <c r="MR1" t="s">
         <v>511</v>
       </c>
-      <c r="MS1" s="1" t="s">
+      <c r="MS1" t="s">
         <v>512</v>
       </c>
-      <c r="MT1" s="1" t="s">
+      <c r="MT1" t="s">
         <v>513</v>
       </c>
-      <c r="MU1" s="1" t="s">
+      <c r="MU1" t="s">
         <v>514</v>
       </c>
-      <c r="MV1" s="1" t="s">
+      <c r="MV1" t="s">
         <v>515</v>
       </c>
-      <c r="MW1" s="1" t="s">
+      <c r="MW1" t="s">
         <v>516</v>
       </c>
-      <c r="MX1" s="1" t="s">
+      <c r="MX1" t="s">
         <v>517</v>
       </c>
-      <c r="MY1" s="1" t="s">
+      <c r="MY1" t="s">
         <v>518</v>
       </c>
-      <c r="MZ1" s="1" t="s">
+      <c r="MZ1" t="s">
         <v>519</v>
       </c>
-      <c r="NA1" s="1" t="s">
+      <c r="NA1" t="s">
         <v>520</v>
       </c>
-      <c r="NB1" s="1" t="s">
+      <c r="NB1" t="s">
         <v>521</v>
       </c>
-      <c r="NC1" s="1" t="s">
+      <c r="NC1" t="s">
         <v>522</v>
       </c>
-      <c r="ND1" s="1" t="s">
+      <c r="ND1" t="s">
         <v>523</v>
       </c>
-      <c r="NE1" s="1" t="s">
+      <c r="NE1" t="s">
         <v>524</v>
       </c>
-      <c r="NF1" s="1" t="s">
+      <c r="NF1" t="s">
         <v>525</v>
       </c>
-      <c r="NG1" s="1" t="s">
+      <c r="NG1" t="s">
         <v>526</v>
       </c>
-      <c r="NH1" s="1" t="s">
+      <c r="NH1" t="s">
         <v>527</v>
       </c>
-      <c r="NI1" s="1" t="s">
+      <c r="NI1" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>530</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>531</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" t="str">
         <f>Data!A1</f>
         <v>1997-01</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" t="str">
         <f>Data!A156</f>
         <v>2009-12</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" t="str">
         <f>Data!A1</f>
         <v>1997-01</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" t="str">
         <f>Data!A156</f>
         <v>2009-12</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" t="str">
         <f>Data!A1</f>
         <v>1997-01</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" t="str">
         <f>Data!A156</f>
         <v>2009-12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>552</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>70</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <f>AVERAGE(Data!B25,Data!B13)</f>
         <v>964.97274999999991</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <f>STDEV(Data!B13,Data!B25)</f>
         <v>178.12338016140717</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <f>AVERAGE(Data!C13,Data!C25)</f>
         <v>1386.4665</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <f>STDEV(Data!C13,Data!C25)</f>
         <v>201.9666672696267</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <f>AVERAGE(Data!C13,Data!C25,Data!C37,Data!C49,Data!C61)</f>
         <v>1582.8329799999999</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2">
         <f>STDEV(Data!C13,Data!C25,Data!C37,Data!C49,Data!C61)</f>
         <v>343.90206794566836</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2">
         <f>SKEW(Data!C13,Data!C25,Data!C37,Data!C49,Data!C61)</f>
         <v>0.32105951490261836</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2">
         <f>(SUM(Data!C13,Data!C25)-Calc!AA2*SUM(Data!B13,Data!B25))/N2</f>
         <v>292.32416929134297</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2">
         <f>(N2*AA12 - (AA6*AA9))/(N2*AA15 - (AA6^2))</f>
         <v>1.133858267716531</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2">
         <f>(N2*AA12 - AA6*AA9)/SQRT((N2*AA15-AA6^2)*(N2*AA18 - AA9^2))</f>
         <v>0.99999999999999778</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2">
         <f>AB2^2</f>
         <v>0.99999999999999556</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2">
         <f>AVERAGE(Data!D25,Data!D13)</f>
         <v>1386.4665</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2">
         <f>STDEV(Data!D25,Data!D13)</f>
         <v>201.9666672696267</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2">
         <f>SQRT(AF6/N2)</f>
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s">
         <v>546</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" t="s">
         <v>546</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2">
         <f>IF(OR(AK2="No",AL2 ="No"),0,(V2-N2))</f>
         <v>0</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2">
         <v>2</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2">
         <f>AVERAGE(Data!B14,Data!B26)</f>
         <v>812.04489999999998</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2">
         <f>STDEV(Data!B14,Data!B26)</f>
         <v>118.93592628100198</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2">
         <f>AVERAGE(Data!C14,Data!C26)</f>
         <v>1175.8188500000001</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2">
         <f>STDEV(Data!C14, Data!C26)</f>
         <v>142.21819486902859</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2">
         <v>5</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2">
         <f>AVERAGE(Data!C14,Data!C26,Data!C38,Data!C50,Data!C62)</f>
         <v>1297.0305000000001</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2">
         <f>STDEV(Data!C14,Data!C26,Data!C38,Data!C50,Data!C62)</f>
         <v>230.2813919900486</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2">
         <f>SKEW(Data!C14,Data!C26,Data!C38,Data!C50,Data!C62)</f>
         <v>0.62996274790260331</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2">
         <f>(SUM(Data!C14,Data!C26) - BE2*SUM(Data!B14,Data!B26))/AR2</f>
         <v>2146.825369575487</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2">
         <f>(AR2*BE12 - BE6*BE9)/(AR2*BE15-(BE6^2))</f>
         <v>-1.1957547169811509</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2">
         <f>(AR2*BE12 - BE6*BE9)/SQRT((AR2*BE15 - BE6^2)*(AR2*BE18 - BE9^2))</f>
         <v>-1.0000000000000222</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2">
         <f>BF2^2</f>
         <v>1.0000000000000444</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2">
         <f>AVERAGE(Data!D14,Data!D26)</f>
         <v>1175.8188500000001</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2">
         <f>STDEV(Data!D14,Data!D26)</f>
         <v>142.21819486903087</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2">
         <f>SQRT(SUMSQ(Data!C14-Data!D14,Data!C26-Data!D26)/AR2)</f>
         <v>1.5916157281026244E-12</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BO2" t="s">
         <v>546</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BP2" t="s">
         <v>546</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BR2">
         <f>IF(BO2="No",0,(AR2-AU2))</f>
         <v>0</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BV2">
         <v>3</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="BW2">
         <f>AVERAGE(Data!B15,Data!B27,Data!B51)</f>
         <v>949.43533333333335</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="BX2">
         <f>STDEV(Data!B15,Data!B27,Data!B51)</f>
         <v>182.67952443715117</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="BY2">
         <v>6</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="BZ2">
         <f>AVERAGE(Data!B75,Data!B87,Data!B99,Data!B111,Data!B123,Data!B135)</f>
         <v>831.61543333333327</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CA2">
         <f>STDEV(Data!B75,Data!B87,Data!B99,Data!B111,Data!B123,Data!B135)</f>
         <v>350.96824201321527</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CB2">
         <f>AVERAGE(Data!C15,Data!C27,Data!C51)</f>
         <v>1548.1217333333334</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CC2">
         <f>STDEV(Data!C15,Data!C27,Data!C51)</f>
         <v>171.87914650359227</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="CD2">
         <v>5</v>
       </c>
-      <c r="CE2" s="1">
+      <c r="CE2">
         <f>AVERAGE(Data!C15,Data!C27,Data!C39,Data!C51,Data!C63)</f>
         <v>1611.3953799999999</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CF2">
         <f>STDEV(Data!C15,Data!C27,Data!C39,Data!C51,Data!C63)</f>
         <v>159.33011305367546</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CG2">
         <f>SKEW(Data!C15,Data!C27,Data!C39,Data!C51,Data!C63)</f>
         <v>-9.2088357567258111E-2</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CH2">
         <f>(SUM(Data!C15,Data!C27,Data!C51) - CI2*SUM(Data!B15,Data!B27,Data!B51))/BV2</f>
         <v>1980.5105588635104</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CI2">
         <f>(BV2*CI12 - CI6*CI9)/(BV2*CI15 - (CI6^2))</f>
         <v>-0.4554168255062942</v>
       </c>
-      <c r="CJ2" s="1">
+      <c r="CJ2">
         <f>(BV2*CI12 - CI6*CI9)/SQRT((BV2*CI15 - CI6^2)*(BV2*CI18 - CI9^2))</f>
         <v>-0.48403387378018953</v>
       </c>
-      <c r="CK2" s="1">
+      <c r="CK2">
         <f>CJ2^2</f>
         <v>0.23428879096665645</v>
       </c>
-      <c r="CL2" s="1">
+      <c r="CL2">
         <f>AVERAGE(Data!D15,Data!D27,Data!D51)</f>
         <v>1548.1217333333334</v>
       </c>
-      <c r="CM2" s="1">
+      <c r="CM2">
         <f>STDEV(Data!D15,Data!D27,Data!D51)</f>
         <v>83.195329104166447</v>
       </c>
-      <c r="CN2" s="1">
+      <c r="CN2">
         <f>SQRT(CN6/BV2)</f>
         <v>122.80330673629393</v>
       </c>
-      <c r="CO2" s="1">
+      <c r="CO2">
         <f>SQRT(CN6/(BV2-2))</f>
         <v>212.70156660472645</v>
       </c>
-      <c r="CP2" s="1">
+      <c r="CP2">
         <f>CO2/SQRT(SUMSQ(Data!B15-BW2,Data!B27-BW2,Data!B51-BW2))</f>
         <v>0.8233146028741134</v>
       </c>
-      <c r="CQ2" s="1">
+      <c r="CQ2">
         <f>CI2/CP2</f>
         <v>-0.55315042866539366</v>
       </c>
-      <c r="CR2" s="1">
+      <c r="CR2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,BV2-2))</f>
         <v>1.9626105055051506</v>
       </c>
-      <c r="CS2" s="1" t="str">
+      <c r="CS2" t="str">
         <f>IF(CQ2&gt;CR2,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="CT2" s="1" t="str">
+      <c r="CT2" t="str">
         <f>IF(BW2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CV2">
         <f>IF(CS2="No",0,(BV2-BY2))</f>
         <v>0</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="CZ2">
         <v>5</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DA2">
         <f>AVERAGE(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64)</f>
         <v>1656.61922</v>
       </c>
-      <c r="DB2" s="1">
+      <c r="DB2">
         <f>STDEV(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64)</f>
         <v>471.15408313811395</v>
       </c>
-      <c r="DC2" s="1">
+      <c r="DC2">
         <v>7</v>
       </c>
-      <c r="DD2" s="1">
+      <c r="DD2">
         <f>AVERAGE(Data!B76,Data!B88,Data!B100,Data!B112,Data!B124,Data!B136,Data!B148)</f>
         <v>1426.4198571428572</v>
       </c>
-      <c r="DE2" s="1">
+      <c r="DE2">
         <f>STDEV(Data!B76,Data!B88,Data!B100,Data!B112,Data!B124,Data!B136,Data!B148)</f>
         <v>296.34452210106548</v>
       </c>
-      <c r="DF2" s="1">
+      <c r="DF2">
         <f>AVERAGE(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64)</f>
         <v>1963.0699800000002</v>
       </c>
-      <c r="DG2" s="1">
+      <c r="DG2">
         <f>STDEV(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64)</f>
         <v>1176.807087039824</v>
       </c>
-      <c r="DH2" s="1">
+      <c r="DH2">
         <v>5</v>
       </c>
-      <c r="DI2" s="1">
+      <c r="DI2">
         <f>AVERAGE(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64)</f>
         <v>1963.0699800000002</v>
       </c>
-      <c r="DJ2" s="1">
+      <c r="DJ2">
         <f>DG2</f>
         <v>1176.807087039824</v>
       </c>
-      <c r="DK2" s="1">
+      <c r="DK2">
         <f>SKEW(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64)</f>
         <v>-0.87088610602235716</v>
       </c>
-      <c r="DL2" s="1">
+      <c r="DL2">
         <f>(SUM(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64) - DM2*SUM(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64))/CZ2</f>
         <v>685.52958091389212</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DM2">
         <f>(CZ2*DM12-DM6*DM9)/(CZ2*SUMSQ(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64) - (SUM(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64)^2))</f>
         <v>0.77117323260689197</v>
       </c>
-      <c r="DN2" s="1">
+      <c r="DN2">
         <f>(CZ2*DM12 - DM6*DM9)/SQRT((CZ2*DM15 - DM6^2)*(CZ2*DM18 - DM9^2))</f>
         <v>0.30875189430029326</v>
       </c>
-      <c r="DO2" s="1">
+      <c r="DO2">
         <f>DN2^2</f>
         <v>9.5327732234019469E-2</v>
       </c>
-      <c r="DP2" s="1">
+      <c r="DP2">
         <f>AVERAGE(Data!D16,Data!D28,Data!D40,Data!D52,Data!D64)</f>
         <v>1963.0699800000002</v>
       </c>
-      <c r="DQ2" s="1">
+      <c r="DQ2">
         <f>STDEV(Data!D16,Data!D28,Data!D40,Data!D52,Data!D64)</f>
         <v>363.34141734955455</v>
       </c>
-      <c r="DR2" s="1">
+      <c r="DR2">
         <f>SQRT(DR6/CZ2)</f>
         <v>1001.1425211409502</v>
       </c>
-      <c r="DS2" s="1">
+      <c r="DS2">
         <f>SQRT(DR6/(CZ2-2))</f>
         <v>1292.4694371863357</v>
       </c>
-      <c r="DT2" s="1">
+      <c r="DT2">
         <f>DS2/SQRT(SUMSQ(Data!B16-DA2,Data!B28-DA2,Data!B40-DA2,Data!B52-DA2,Data!B64-DA2))</f>
         <v>1.3715995291581298</v>
       </c>
-      <c r="DU2" s="1">
+      <c r="DU2">
         <f>DM2/DT2</f>
         <v>0.56224372800727651</v>
       </c>
-      <c r="DV2" s="1">
+      <c r="DV2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,CZ2-2))</f>
         <v>1.2497781050332251</v>
       </c>
-      <c r="DW2" s="1" t="str">
+      <c r="DW2" t="str">
         <f>IF(DU2&gt;DV2,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="DX2" s="1" t="str">
+      <c r="DX2" t="str">
         <f>IF(CZ2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="DZ2" s="1">
+      <c r="DZ2">
         <f>IF(DW2="No",0,DC2)</f>
         <v>0</v>
       </c>
-      <c r="ED2" s="1">
+      <c r="ED2">
         <v>4</v>
       </c>
-      <c r="EE2" s="1">
+      <c r="EE2">
         <f>AVERAGE(Data!B17,Data!B29,Data!B41,Data!B53)</f>
         <v>8404.5852250000007</v>
       </c>
-      <c r="EF2" s="1">
+      <c r="EF2">
         <f>STDEV(Data!B17,Data!B29,Data!B41,Data!B53)</f>
         <v>2646.2096418407459</v>
       </c>
-      <c r="EG2" s="1">
+      <c r="EG2">
         <v>8</v>
       </c>
-      <c r="EH2" s="1">
+      <c r="EH2">
         <f>AVERAGE(Data!B65,Data!B77,Data!B89,Data!B101,Data!B113,Data!B125,Data!B137,Data!B149)</f>
         <v>7877.4702374999997</v>
       </c>
-      <c r="EI2" s="1">
+      <c r="EI2">
         <f>STDEV(Data!B65,Data!B77,Data!B89,Data!B101,Data!B113,Data!B125,Data!B137,Data!B149)</f>
         <v>3348.1186038697811</v>
       </c>
-      <c r="EJ2" s="1">
+      <c r="EJ2">
         <f>AVERAGE(Data!C17,Data!C29,Data!C41,Data!C53)</f>
         <v>12064.638975</v>
       </c>
-      <c r="EK2" s="1">
+      <c r="EK2">
         <f>STDEV(Data!C17,Data!C29,Data!C41,Data!C53)</f>
         <v>3366.8723225756708</v>
       </c>
-      <c r="EL2" s="1">
+      <c r="EL2">
         <v>4</v>
       </c>
-      <c r="EM2" s="1">
+      <c r="EM2">
         <f>EJ2</f>
         <v>12064.638975</v>
       </c>
-      <c r="EN2" s="1">
+      <c r="EN2">
         <f>EK2</f>
         <v>3366.8723225756708</v>
       </c>
-      <c r="EO2" s="1">
+      <c r="EO2">
         <f>SKEW(Data!C17,Data!C29,Data!C41,Data!C53)</f>
         <v>0.17940016383867585</v>
       </c>
-      <c r="EP2" s="1">
+      <c r="EP2">
         <f>(EQ9 - EQ2*EQ6)/ED2</f>
         <v>1429.7673675882324</v>
       </c>
-      <c r="EQ2" s="1">
+      <c r="EQ2">
         <f>(ED2*EQ12 - EQ6*EQ9)/(ED2*EQ15 - EQ6^2)</f>
         <v>1.2653654312145746</v>
       </c>
-      <c r="ER2" s="1">
+      <c r="ER2">
         <f>(ED2*EQ12-EQ6*EQ9)/SQRT((ED2*EQ15-EQ6^2)*(ED2*EQ18 - EQ9^2))</f>
         <v>0.99452010166231175</v>
       </c>
-      <c r="ES2" s="1">
+      <c r="ES2">
         <f>ER2^2</f>
         <v>0.98907023261041493</v>
       </c>
-      <c r="ET2" s="1">
+      <c r="ET2">
         <f>AVERAGE(Data!D17,Data!D29,Data!D41,Data!D53)</f>
         <v>12064.638974999998</v>
       </c>
-      <c r="EU2" s="1">
+      <c r="EU2">
         <f>STDEV(Data!D17,Data!D29,Data!D41,Data!D53)</f>
         <v>3348.4222045319939</v>
       </c>
-      <c r="EV2" s="1">
+      <c r="EV2">
         <f>SQRT(EV6/ED2)</f>
         <v>304.83353250992644</v>
       </c>
-      <c r="EW2" s="1">
+      <c r="EW2">
         <f>SQRT(EV6/(ED2-2))</f>
         <v>431.09971594163773</v>
       </c>
-      <c r="EX2" s="1">
+      <c r="EX2">
         <f>EW2/SQRT(SUMSQ(Data!B17-EE2,Data!B29-EE2,Data!B41-EE2,Data!B53-EE2))</f>
         <v>9.4057376676074556E-2</v>
       </c>
-      <c r="EY2" s="1">
+      <c r="EY2">
         <f>EQ2/EX2</f>
         <v>13.453122720745055</v>
       </c>
-      <c r="EZ2" s="1">
+      <c r="EZ2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,ED2-2))</f>
         <v>1.3862065601673439</v>
       </c>
-      <c r="FA2" s="1" t="str">
+      <c r="FA2" t="str">
         <f>IF(EY2&gt;EZ2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="FB2" s="1" t="str">
+      <c r="FB2" t="str">
         <f>IF(ED2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="FD2" s="1">
+      <c r="FD2">
         <f>IF(FA2="No",0,EG2)</f>
         <v>8</v>
       </c>
-      <c r="FE2" s="1">
+      <c r="FE2">
         <f>AVERAGE(Data!D65,Data!D77,Data!D89,Data!D101,Data!D113,Data!D125,Data!D137,Data!D149)</f>
         <v>11397.645891542397</v>
       </c>
-      <c r="FF2" s="1">
+      <c r="FF2">
         <f>STDEV(Data!D65,Data!D77,Data!D89,Data!D101,Data!D113,Data!D125,Data!D137,Data!D149)</f>
         <v>4236.5935409432195</v>
       </c>
-      <c r="FG2" s="1">
+      <c r="FG2">
         <f>SKEW(Data!D65,Data!D77,Data!D89,Data!D101,Data!D113,Data!D125,Data!D137,Data!D149)</f>
         <v>0.1944012255664703</v>
       </c>
-      <c r="FH2" s="1">
+      <c r="FH2">
         <v>4</v>
       </c>
-      <c r="FI2" s="1">
+      <c r="FI2">
         <f>AVERAGE(Data!B18,Data!B30,Data!B42,Data!B54)</f>
         <v>16901.899175000002</v>
       </c>
-      <c r="FJ2" s="1">
+      <c r="FJ2">
         <f>STDEV(Data!B18,Data!B30,Data!B42,Data!B54)</f>
         <v>3815.0434240728973</v>
       </c>
-      <c r="FK2" s="1">
+      <c r="FK2">
         <v>8</v>
       </c>
-      <c r="FL2" s="1">
+      <c r="FL2">
         <f>AVERAGE(Data!B66,Data!B78,Data!B90,Data!B102,Data!B114,Data!B126,Data!B138,Data!B150)</f>
         <v>16364.8667</v>
       </c>
-      <c r="FM2" s="1">
+      <c r="FM2">
         <f>STDEV(Data!B66,Data!B78,Data!B90,Data!B102,Data!B114,Data!B126,Data!B138,Data!B150)</f>
         <v>6861.5508597481366</v>
       </c>
-      <c r="FN2" s="1">
+      <c r="FN2">
         <f>AVERAGE(Data!C18,Data!C30,Data!C42,Data!C54)</f>
         <v>24370.2726</v>
       </c>
-      <c r="FO2" s="1">
+      <c r="FO2">
         <f>STDEV(Data!C18,Data!C30,Data!C42,Data!C54)</f>
         <v>5796.6159057409159</v>
       </c>
-      <c r="FP2" s="1">
+      <c r="FP2">
         <v>4</v>
       </c>
-      <c r="FQ2" s="1">
+      <c r="FQ2">
         <f>FN2</f>
         <v>24370.2726</v>
       </c>
-      <c r="FR2" s="1">
+      <c r="FR2">
         <f>FO2</f>
         <v>5796.6159057409159</v>
       </c>
-      <c r="FS2" s="1">
+      <c r="FS2">
         <f>SKEW(Data!C18,Data!C30,Data!C42,Data!C54)</f>
         <v>1.6637202918283807</v>
       </c>
-      <c r="FT2" s="1">
+      <c r="FT2">
         <f>(FU8 - FU2*FU5)/FH2</f>
         <v>-1111.496302580319</v>
       </c>
-      <c r="FU2" s="1">
+      <c r="FU2">
         <f>(FH2*FU11 - FU5*FU8)/(FH2*FU14 - FU5^2)</f>
         <v>1.5076275534923913</v>
       </c>
-      <c r="FV2" s="1">
+      <c r="FV2">
         <f>(FH2*FU11 - FU5*FU8)/SQRT((FH2*FU14 - FU5^2)*(FH2*FU17 - FU8^2))</f>
         <v>0.99224524747376497</v>
       </c>
-      <c r="FW2" s="1">
+      <c r="FW2">
         <f>FV2^2</f>
         <v>0.9845506311342731</v>
       </c>
-      <c r="FX2" s="1">
+      <c r="FX2">
         <f>AVERAGE(Data!D18,Data!D30,Data!D42,Data!D54)</f>
         <v>24370.2726</v>
       </c>
-      <c r="FY2" s="1">
+      <c r="FY2">
         <f>STDEV(Data!D18,Data!D30,Data!D42,Data!D54)</f>
         <v>5751.6645839022594</v>
       </c>
-      <c r="FZ2" s="1">
+      <c r="FZ2">
         <f>SQRT(FZ5/FH2)</f>
         <v>623.96542751168761</v>
       </c>
-      <c r="GA2" s="1">
+      <c r="GA2">
         <f>SQRT(FZ5/(FH2 - 2))</f>
         <v>882.42037003895507</v>
       </c>
-      <c r="GB2" s="1">
+      <c r="GB2">
         <f>GA2/SQRT(SUMSQ(Data!B18-FI2,Data!B30-FI2,Data!B42-FI2,Data!B54-FI2))</f>
         <v>0.13354124227411771</v>
       </c>
-      <c r="GC2" s="1">
+      <c r="GC2">
         <f>FU2/GB2</f>
         <v>11.289602581333723</v>
       </c>
-      <c r="GD2" s="1">
+      <c r="GD2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,FH2-2))</f>
         <v>1.3862065601673439</v>
       </c>
-      <c r="GE2" s="1" t="str">
+      <c r="GE2" t="str">
         <f>IF(GC2&gt;GD2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="GF2" s="1" t="str">
+      <c r="GF2" t="str">
         <f>IF(FH2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="GH2" s="1">
+      <c r="GH2">
         <f>IF(GE2="No",0,FK2)</f>
         <v>8</v>
       </c>
-      <c r="GI2" s="1">
+      <c r="GI2">
         <f>AVERAGE(Data!D66,Data!D78,Data!D90,Data!D102,Data!D114,Data!D126,Data!D138,Data!D150)</f>
         <v>23560.627643569787</v>
       </c>
-      <c r="GJ2" s="1">
+      <c r="GJ2">
         <f>STDEV(Data!D66,Data!D78,Data!D90,Data!D102,Data!D114,Data!D126,Data!D138,Data!D150)</f>
         <v>10344.663135845687</v>
       </c>
-      <c r="GK2" s="1">
+      <c r="GK2">
         <f>SKEW(Data!D66,Data!D78,Data!D90,Data!D102,Data!D114,Data!D126,Data!D138,Data!D150)</f>
         <v>-0.41658865793182287</v>
       </c>
-      <c r="GL2" s="1">
+      <c r="GL2">
         <v>5</v>
       </c>
-      <c r="GM2" s="1">
+      <c r="GM2">
         <f>AVERAGE(Data!B7,Data!B19,Data!B31,Data!B43,Data!B55)</f>
         <v>12684.879279999999</v>
       </c>
-      <c r="GN2" s="1">
+      <c r="GN2">
         <f>STDEV(Data!B7,Data!B19,Data!B31,Data!B43,Data!B55)</f>
         <v>3135.6374512940206</v>
       </c>
-      <c r="GO2" s="1">
+      <c r="GO2">
         <v>8</v>
       </c>
-      <c r="GP2" s="1">
+      <c r="GP2">
         <f>AVERAGE(Data!B67,Data!B79,Data!B91,Data!B103,Data!B115,Data!B127,Data!B139,Data!B151)</f>
         <v>9088.3970750000008</v>
       </c>
-      <c r="GQ2" s="1">
+      <c r="GQ2">
         <f>STDEV(Data!B67,Data!B79,Data!B91,Data!B103,Data!B115,Data!B127,Data!B139,Data!B151)</f>
         <v>3647.7056772456081</v>
       </c>
-      <c r="GR2" s="1">
+      <c r="GR2">
         <f>AVERAGE(Data!C7,Data!C19,Data!C31,Data!C43,Data!C55)</f>
         <v>17543.858779999999</v>
       </c>
-      <c r="GS2" s="1">
+      <c r="GS2">
         <f>STDEV(Data!C7,Data!C19,Data!C31,Data!C43,Data!C55)</f>
         <v>5023.7049258691759</v>
       </c>
-      <c r="GT2" s="1">
+      <c r="GT2">
         <v>5</v>
       </c>
-      <c r="GU2" s="1">
+      <c r="GU2">
         <f>AVERAGE(Data!C7,Data!C19,Data!C31,Data!C43,Data!C55)</f>
         <v>17543.858779999999</v>
       </c>
-      <c r="GV2" s="1">
+      <c r="GV2">
         <f>GS2</f>
         <v>5023.7049258691759</v>
       </c>
-      <c r="GW2" s="1">
+      <c r="GW2">
         <f>SKEW(Data!C7,Data!C19,Data!C31,Data!C43,Data!C55)</f>
         <v>1.3340250073883344</v>
       </c>
-      <c r="GX2" s="1">
+      <c r="GX2">
         <f>(GY8-GY2*GY5)/GL2</f>
         <v>-724.93383491117561</v>
       </c>
-      <c r="GY2" s="1">
+      <c r="GY2">
         <f>(GL2*GY11 - GY5*GY8)/(GL2*GY14 - GY5^2)</f>
         <v>1.4402023237000938</v>
       </c>
-      <c r="GZ2" s="1">
+      <c r="GZ2">
         <f>(GL2*GY11 - GY5*GY8)/SQRT((GL2*GY14 - GY5^2)*(GL2*GY17 - GY8^2))</f>
         <v>0.89892866127151394</v>
       </c>
-      <c r="HA2" s="1">
+      <c r="HA2">
         <f>GZ2^2</f>
         <v>0.80807273805539626</v>
       </c>
-      <c r="HB2" s="1">
+      <c r="HB2">
         <f>AVERAGE(Data!D7,Data!D19,Data!D31,Data!D43,Data!D55)</f>
         <v>17543.858779999999</v>
       </c>
-      <c r="HC2" s="1">
+      <c r="HC2">
         <f>STDEV(Data!D7,Data!D19,Data!D31,Data!D43,Data!D55)</f>
         <v>4515.9523436346917</v>
       </c>
-      <c r="HD2" s="1">
+      <c r="HD2">
         <f>SQRT(HD5/GL2)</f>
         <v>1968.5092049005025</v>
       </c>
-      <c r="HE2" s="1">
+      <c r="HE2">
         <f>SQRT(HD5/(GL2-2))</f>
         <v>2541.3344558118833</v>
       </c>
-      <c r="HF2" s="1">
+      <c r="HF2">
         <f>HE2/SQRT(SUMSQ(Data!B7-GM2,Data!B19-GM2,Data!B31-GM2,Data!B43-GM2,Data!B55-GM2))</f>
         <v>0.40523410236140689</v>
       </c>
-      <c r="HG2" s="1">
+      <c r="HG2">
         <f>GY2/HF2</f>
         <v>3.5540007993099589</v>
       </c>
-      <c r="HH2" s="1">
+      <c r="HH2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,GL2-2))</f>
         <v>1.2497781050332251</v>
       </c>
-      <c r="HI2" s="1" t="str">
+      <c r="HI2" t="str">
         <f>IF(HG2&gt;HH2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="HJ2" s="1" t="str">
+      <c r="HJ2" t="str">
         <f>IF(GL2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="HL2" s="1">
+      <c r="HL2">
         <f>IF(HI2="No",0,GO2)</f>
         <v>8</v>
       </c>
-      <c r="HM2" s="1">
+      <c r="HM2">
         <f>AVERAGE(Data!D67,Data!D79,Data!D91,Data!D103,Data!D115,Data!D127,Data!D139,Data!D151)</f>
         <v>12364.196751212959</v>
       </c>
-      <c r="HN2" s="1">
+      <c r="HN2">
         <f>STDEV(Data!D67,Data!D79,Data!D91,Data!D103,Data!D115,Data!D127,Data!D139,Data!D151)</f>
         <v>5253.4341925431527</v>
       </c>
-      <c r="HO2" s="1">
+      <c r="HO2">
         <f>SKEW(Data!D67,Data!D79,Data!D91,Data!D103,Data!D115,Data!D127,Data!D139,Data!D151)</f>
         <v>-0.87141911059251864</v>
       </c>
-      <c r="HP2" s="1">
+      <c r="HP2">
         <v>5</v>
       </c>
-      <c r="HQ2" s="1">
+      <c r="HQ2">
         <f>AVERAGE(Data!B8,Data!B20,Data!B32,Data!B44,Data!B56)</f>
         <v>7655.5167000000001</v>
       </c>
-      <c r="HR2" s="1">
+      <c r="HR2">
         <f>STDEV(Data!B8,Data!B20,Data!B32,Data!B44,Data!B56)</f>
         <v>3350.8642599017712</v>
       </c>
-      <c r="HS2" s="1">
+      <c r="HS2">
         <v>8</v>
       </c>
-      <c r="HT2" s="1">
+      <c r="HT2">
         <f>AVERAGE(Data!B68,Data!B80,Data!B92,Data!B104,Data!B116,Data!B128,Data!B140,Data!B152)</f>
         <v>4084.2743874999996</v>
       </c>
-      <c r="HU2" s="1">
+      <c r="HU2">
         <f>STDEV(Data!B68,Data!B80,Data!B92,Data!B104,Data!B116,Data!B128,Data!B140,Data!B152)</f>
         <v>1325.0358069578167</v>
       </c>
-      <c r="HV2" s="1">
+      <c r="HV2">
         <f>AVERAGE(Data!C8,Data!C20,Data!C32,Data!C44,Data!C56)</f>
         <v>11139.931059999999</v>
       </c>
-      <c r="HW2" s="1">
+      <c r="HW2">
         <f>STDEV(Data!C8,Data!C20,Data!C32,Data!C44,Data!C56)</f>
         <v>5145.0820051063456</v>
       </c>
-      <c r="HX2" s="1">
+      <c r="HX2">
         <v>5</v>
       </c>
-      <c r="HY2" s="1">
+      <c r="HY2">
         <f>HV2</f>
         <v>11139.931059999999</v>
       </c>
-      <c r="HZ2" s="1">
+      <c r="HZ2">
         <f>HW2</f>
         <v>5145.0820051063456</v>
       </c>
-      <c r="IA2" s="1">
+      <c r="IA2">
         <f>SKEW(Data!C8,Data!C20,Data!C32,Data!C44,Data!C56)</f>
         <v>1.6201758220119336</v>
       </c>
-      <c r="IB2" s="1">
+      <c r="IB2">
         <f>(IC8 - IC2*IC5)/HP2</f>
         <v>-583.14725793083778</v>
       </c>
-      <c r="IC2" s="1">
+      <c r="IC2">
         <f>(HP2*IC11 - IC5*IC8)/(HP2*IC14 - IC5^2)</f>
         <v>1.5313242433304126</v>
       </c>
-      <c r="ID2" s="1">
+      <c r="ID2">
         <f>(HP2*IC11 - IC5*IC8)/SQRT((HP2*IC14 - IC5^2)*(HP2*IC17  - IC8^2))</f>
         <v>0.99731348736606662</v>
       </c>
-      <c r="IE2" s="1">
+      <c r="IE2">
         <f>ID2^2</f>
         <v>0.99463419208226556</v>
       </c>
-      <c r="IF2" s="1">
+      <c r="IF2">
         <f>AVERAGE(Data!D8,Data!D20,Data!D32,Data!D44,Data!D56)</f>
         <v>11139.931059999999</v>
       </c>
-      <c r="IG2" s="1">
+      <c r="IG2">
         <f>STDEV(Data!D8,Data!D20,Data!D32,Data!D44,Data!D56)</f>
         <v>5131.2596772970046</v>
       </c>
-      <c r="IH2" s="1">
+      <c r="IH2">
         <f>SQRT(IH5/HP2)</f>
         <v>337.09697526369803</v>
       </c>
-      <c r="II2" s="1">
+      <c r="II2">
         <f>SQRT(IH5/(HP2-2))</f>
         <v>435.19032375106531</v>
       </c>
-      <c r="IJ2" s="1">
+      <c r="IJ2">
         <f>II2/SQRT(SUMSQ(Data!B8-HQ2,Data!B20-HQ2,Data!B32-HQ2,Data!B44-HQ2,Data!B56-HQ2))</f>
         <v>6.4937026688723962E-2</v>
       </c>
-      <c r="IK2" s="1">
+      <c r="IK2">
         <f>IC2/IJ2</f>
         <v>23.581680920976332</v>
       </c>
-      <c r="IL2" s="1">
+      <c r="IL2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,HP2-2))</f>
         <v>1.2497781050332251</v>
       </c>
-      <c r="IM2" s="1" t="str">
+      <c r="IM2" t="str">
         <f>IF(IK2&gt;IL2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="IN2" s="1" t="str">
+      <c r="IN2" t="str">
         <f>IF(HP2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="IP2" s="1">
+      <c r="IP2">
         <f>IF(IM2="No",0,HS2)</f>
         <v>8</v>
       </c>
-      <c r="IQ2" s="1">
+      <c r="IQ2">
         <f>AVERAGE(Data!D68,Data!D80,Data!D92,Data!D104,Data!D116,Data!D128,Data!D140,Data!D152)</f>
         <v>5671.2011280613842</v>
       </c>
-      <c r="IR2" s="1">
+      <c r="IR2">
         <f>STDEV(Data!D68,Data!D80,Data!D92,Data!D104,Data!D116,Data!D128,Data!D140,Data!D152)</f>
         <v>2029.0594544753785</v>
       </c>
-      <c r="IS2" s="1">
+      <c r="IS2">
         <f>SKEW(Data!D68,Data!D80,Data!D92,Data!D104,Data!D116,Data!D128,Data!D140,Data!D152)</f>
         <v>-0.49501309234547308</v>
       </c>
-      <c r="IT2" s="1">
+      <c r="IT2">
         <v>5</v>
       </c>
-      <c r="IU2" s="1">
+      <c r="IU2">
         <f>AVERAGE(Data!B9,Data!B21,Data!B33,Data!B45,Data!B57)</f>
         <v>3822.9978600000004</v>
       </c>
-      <c r="IV2" s="1">
+      <c r="IV2">
         <f>STDEV(Data!B9,Data!B21,Data!B33,Data!B45,Data!B57)</f>
         <v>707.74902609078413</v>
       </c>
-      <c r="IW2" s="1">
+      <c r="IW2">
         <v>8</v>
       </c>
-      <c r="IX2" s="1">
+      <c r="IX2">
         <f>AVERAGE(Data!B69,Data!B81,Data!B93,Data!B105,Data!B117,Data!B129,Data!B141,Data!B153)</f>
         <v>2329.3727750000003</v>
       </c>
-      <c r="IY2" s="1">
+      <c r="IY2">
         <f>STDEV(Data!B69,Data!B81,Data!B93,Data!B105,Data!B117,Data!B129,Data!B141,Data!B153)</f>
         <v>964.34529020399361</v>
       </c>
-      <c r="IZ2" s="1">
+      <c r="IZ2">
         <f>AVERAGE(Data!C9,Data!C21,Data!C33,Data!C45,Data!C57)</f>
         <v>5520.2787399999997</v>
       </c>
-      <c r="JA2" s="1">
+      <c r="JA2">
         <f>STDEV(Data!C9,Data!C21,Data!C33,Data!C45,Data!C57)</f>
         <v>1006.6672544013186</v>
       </c>
-      <c r="JB2" s="1">
+      <c r="JB2">
         <v>5</v>
       </c>
-      <c r="JC2" s="1">
+      <c r="JC2">
         <f>IZ2</f>
         <v>5520.2787399999997</v>
       </c>
-      <c r="JD2" s="1">
+      <c r="JD2">
         <f>JA2</f>
         <v>1006.6672544013186</v>
       </c>
-      <c r="JE2" s="1">
+      <c r="JE2">
         <f>SKEW(Data!C9,Data!C21,Data!C33,Data!C45,Data!C57)</f>
         <v>2.2061361507368393</v>
       </c>
-      <c r="JF2" s="1">
+      <c r="JF2">
         <f>(JG8-JG5*JG2)/IT2</f>
         <v>342.57018259262475</v>
       </c>
-      <c r="JG2" s="1">
+      <c r="JG2">
         <f>(IT2*JG11 - JG5*JG8)/(IT2*JG14 - JG5^2)</f>
         <v>1.3543582149447959</v>
       </c>
-      <c r="JH2" s="1">
+      <c r="JH2">
         <f>(IT2*JG11 - JG5*JG8)/SQRT((IT2*JG14 - JG5^2)*(IT2*JG17 - JG8^2))</f>
         <v>0.95219716685360722</v>
       </c>
-      <c r="JI2" s="1">
+      <c r="JI2">
         <f>JH2^2</f>
         <v>0.90667944456403626</v>
       </c>
-      <c r="JJ2" s="1">
+      <c r="JJ2">
         <f>AVERAGE(Data!D9,Data!D21,Data!D33,Data!D45,Data!D57)</f>
         <v>5520.2787399999997</v>
       </c>
-      <c r="JK2" s="1">
+      <c r="JK2">
         <f>STDEV(Data!D9,Data!D21,Data!D33,Data!D45,Data!D57)</f>
         <v>958.54570760523234</v>
       </c>
-      <c r="JL2" s="1">
+      <c r="JL2">
         <f>SQRT(JL5/IT2)</f>
         <v>275.05503087993156</v>
       </c>
-      <c r="JM2" s="1">
+      <c r="JM2">
         <f>SQRT(JL5/(IT2-2))</f>
         <v>355.09451796284725</v>
       </c>
-      <c r="JN2" s="1">
+      <c r="JN2">
         <f>JM2/SQRT(SUMSQ(Data!B9-IU2,Data!B21-IU2,Data!B33-IU2,Data!B45-IU2,Data!B57-IU2))</f>
         <v>0.25086189091929512</v>
       </c>
-      <c r="JO2" s="1">
+      <c r="JO2">
         <f>JG2/JN2</f>
         <v>5.3988200837587845</v>
       </c>
-      <c r="JP2" s="1">
+      <c r="JP2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,IT2-2))</f>
         <v>1.2497781050332251</v>
       </c>
-      <c r="JQ2" s="1" t="str">
+      <c r="JQ2" t="str">
         <f>IF(JO2&gt;JP2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="JR2" s="1" t="str">
+      <c r="JR2" t="str">
         <f>IF(IT2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="JT2" s="1">
+      <c r="JT2">
         <f>IF(JQ2="No",0,IW2)</f>
         <v>8</v>
       </c>
-      <c r="JU2" s="1">
+      <c r="JU2">
         <f>AVERAGE(Data!D69,Data!D81,Data!D93,Data!D105,Data!D117,Data!D129,Data!D141,Data!D153)</f>
         <v>3497.3753360826304</v>
       </c>
-      <c r="JV2" s="1">
+      <c r="JV2">
         <f>STDEV(Data!D69,Data!D81,Data!D93,Data!D105,Data!D117,Data!D129,Data!D141,Data!D153)</f>
         <v>1306.0689658311023</v>
       </c>
-      <c r="JW2" s="1">
+      <c r="JW2">
         <f>SKEW(Data!D69,Data!D81,Data!D93,Data!D105,Data!D117,Data!D129,Data!D141,Data!D153)</f>
         <v>0.83665969291991815</v>
       </c>
-      <c r="JX2" s="1">
+      <c r="JX2">
         <v>5</v>
       </c>
-      <c r="JY2" s="1">
+      <c r="JY2">
         <f>AVERAGE(Data!B10,Data!B22,Data!B34,Data!B46,Data!B58)</f>
         <v>2519.4416999999999</v>
       </c>
-      <c r="JZ2" s="1">
+      <c r="JZ2">
         <f>STDEV(Data!B10,Data!B22,Data!B34,Data!B46,Data!B58)</f>
         <v>401.50912552628455</v>
       </c>
-      <c r="KA2" s="1">
+      <c r="KA2">
         <v>8</v>
       </c>
-      <c r="KB2" s="1">
+      <c r="KB2">
         <f>AVERAGE(Data!B70,Data!B82,Data!B94,Data!B106,Data!B118,Data!B130,Data!B142,Data!B154)</f>
         <v>1656.9663000000003</v>
       </c>
-      <c r="KC2" s="1">
+      <c r="KC2">
         <f>STDEV(Data!B70,Data!B82,Data!B94,Data!B106,Data!B118,Data!B130,Data!B142,Data!B154)</f>
         <v>310.45224402712313</v>
       </c>
-      <c r="KD2" s="1">
+      <c r="KD2">
         <f>AVERAGE(Data!C10,Data!C22,Data!C34,Data!C46,Data!C58)</f>
         <v>3409.6364799999997</v>
       </c>
-      <c r="KE2" s="1">
+      <c r="KE2">
         <f>STDEV(Data!C10,Data!C22,Data!C34,Data!C46,Data!C58)</f>
         <v>448.54296860375797</v>
       </c>
-      <c r="KF2" s="1">
+      <c r="KF2">
         <v>5</v>
       </c>
-      <c r="KG2" s="1">
+      <c r="KG2">
         <f>KD2</f>
         <v>3409.6364799999997</v>
       </c>
-      <c r="KH2" s="1">
+      <c r="KH2">
         <f>KE2</f>
         <v>448.54296860375797</v>
       </c>
-      <c r="KI2" s="1">
+      <c r="KI2">
         <f>SKEW(Data!C10,Data!C22,Data!C34,Data!C46,Data!C58)</f>
         <v>1.4203002217100129</v>
       </c>
-      <c r="KJ2" s="1">
+      <c r="KJ2">
         <f>(KK8 - KK2*KK5)/JX2</f>
         <v>1100.5825977804082</v>
       </c>
-      <c r="KK2" s="1">
+      <c r="KK2">
         <f>(JX2*KK11 - KK5*KK8)/(JX2*KK14 - KK5^2)</f>
         <v>0.91649427022645202</v>
       </c>
-      <c r="KL2" s="1">
+      <c r="KL2">
         <f>(JX2*KK11 - KK5*KK8)/SQRT((JX2*KK14 - KK5^2)*(JX2*KK17 - KK8^2))</f>
         <v>0.82039144239388961</v>
       </c>
-      <c r="KM2" s="1">
+      <c r="KM2">
         <f>KL2^2</f>
         <v>0.67304211875312669</v>
       </c>
-      <c r="KN2" s="1">
+      <c r="KN2">
         <f>AVERAGE(Data!D10,Data!D22,Data!D34,Data!D46,Data!D58)</f>
         <v>3409.6364799999997</v>
       </c>
-      <c r="KO2" s="1">
+      <c r="KO2">
         <f>STDEV(Data!D10,Data!D22,Data!D34,Data!D46,Data!D58)</f>
         <v>367.98081298847092</v>
       </c>
-      <c r="KP2" s="1">
+      <c r="KP2">
         <f>SQRT(KP5/JX2)</f>
         <v>229.40081247670165</v>
       </c>
-      <c r="KQ2" s="1">
+      <c r="KQ2">
         <f>SQRT(KP5/(JX2-2))</f>
         <v>296.15517544290537</v>
       </c>
-      <c r="KR2" s="1">
+      <c r="KR2">
         <f>KQ2/SQRT(SUMSQ(Data!B10-JY2,Data!B22-JY2,Data!B34-JY2,Data!B46-JY2,Data!B58-JY2))</f>
         <v>0.36880254596295503</v>
       </c>
-      <c r="KS2" s="1">
+      <c r="KS2">
         <f>KK2/KR2</f>
         <v>2.4850540763851203</v>
       </c>
-      <c r="KT2" s="1">
+      <c r="KT2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,JX2-2))</f>
         <v>1.2497781050332251</v>
       </c>
-      <c r="KU2" s="1" t="str">
+      <c r="KU2" t="str">
         <f>IF(KS2&gt;KT2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="KV2" s="1" t="str">
+      <c r="KV2" t="str">
         <f>IF(JX2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="KX2" s="1">
+      <c r="KX2">
         <f>IF(KV2="No",0,KA2)</f>
         <v>8</v>
       </c>
-      <c r="KY2" s="1">
+      <c r="KY2">
         <f>AVERAGE(Data!D70,Data!D82,Data!D94,Data!D106,Data!D118,Data!D130,Data!D142,Data!D154)</f>
         <v>2619.1827176887327</v>
       </c>
-      <c r="KZ2" s="1">
+      <c r="KZ2">
         <f>STDEV(Data!D70,Data!D82,Data!D94,Data!D106,Data!D118,Data!D130,Data!D142,Data!D154)</f>
         <v>284.52770282979895</v>
       </c>
-      <c r="LA2" s="1">
+      <c r="LA2">
         <f>SKEW(Data!D70,Data!D82,Data!D94,Data!D106,Data!D118,Data!D130,Data!D142,Data!D154)</f>
         <v>-0.29072125647119484</v>
       </c>
-      <c r="LB2" s="1">
+      <c r="LB2">
         <v>4</v>
       </c>
-      <c r="LC2" s="1">
+      <c r="LC2">
         <f>AVERAGE(Data!B11,Data!B23,Data!B35,Data!B47)</f>
         <v>1512.9146499999999</v>
       </c>
-      <c r="LD2" s="1">
+      <c r="LD2">
         <f>STDEV(Data!B11,Data!B23,Data!B35,Data!B47)</f>
         <v>325.79505097994257</v>
       </c>
-      <c r="LE2" s="1">
+      <c r="LE2">
         <v>7</v>
       </c>
-      <c r="LF2" s="1">
+      <c r="LF2">
         <f>AVERAGE(Data!B83,Data!B95,Data!B107,Data!B119,Data!B131,Data!B143,Data!B155)</f>
         <v>970.21488571428574</v>
       </c>
-      <c r="LG2" s="1">
+      <c r="LG2">
         <f>STDEV(Data!B83,Data!B95,Data!B107,Data!B119,Data!B131,Data!B143,Data!B155)</f>
         <v>244.24834821155102</v>
       </c>
-      <c r="LH2" s="1">
+      <c r="LH2">
         <f>AVERAGE(Data!C11,Data!C23,Data!C35,Data!C47)</f>
         <v>2286.4796000000001</v>
       </c>
-      <c r="LI2" s="1">
+      <c r="LI2">
         <f>STDEV(Data!C11,Data!C23,Data!C35,Data!C47)</f>
         <v>266.16436656315784</v>
       </c>
-      <c r="LJ2" s="1">
+      <c r="LJ2">
         <v>5</v>
       </c>
-      <c r="LK2" s="1">
+      <c r="LK2">
         <f>AVERAGE(Data!C11,Data!C23,Data!C35,Data!C47,Data!C59)</f>
         <v>2338.54648</v>
       </c>
-      <c r="LL2" s="1">
+      <c r="LL2">
         <f>STDEV(Data!C11,Data!C23,Data!C35,Data!C47,Data!C59)</f>
         <v>258.23904136603159</v>
       </c>
-      <c r="LM2" s="1">
+      <c r="LM2">
         <f>SKEW(Data!C11,Data!C23,Data!C35,Data!C47,Data!C59)</f>
         <v>-1.1656846104724865</v>
       </c>
-      <c r="LN2" s="1">
+      <c r="LN2">
         <f>(LO8 - LO2*LO5)/LB2</f>
         <v>1292.9934351102888</v>
       </c>
-      <c r="LO2" s="1">
+      <c r="LO2">
         <f>(LB2*LO11 - LO5*LO8)/(LB2*LO14 - LO5^2)</f>
         <v>0.6566703315945227</v>
       </c>
-      <c r="LP2" s="1">
+      <c r="LP2">
         <f>(LB2*LO11 - LO5*LO8)/SQRT((LB2*LO14 - LO5^2)*(LB2*LO17 - LO8^2))</f>
         <v>0.80378882763815707</v>
       </c>
-      <c r="LQ2" s="1">
+      <c r="LQ2">
         <f>LP2^2</f>
         <v>0.64607647943592295</v>
       </c>
-      <c r="LR2" s="1">
+      <c r="LR2">
         <f>AVERAGE(Data!D11,Data!D23,Data!D35,Data!D47)</f>
         <v>2286.4796000000001</v>
       </c>
-      <c r="LS2" s="1">
+      <c r="LS2">
         <f>STDEV(Data!D11,Data!D23,Data!D35,Data!D47)</f>
         <v>213.93994415885331</v>
       </c>
-      <c r="LT2" s="1">
+      <c r="LT2">
         <f>SQRT(LT5/LB2)</f>
         <v>137.13087814549567</v>
       </c>
-      <c r="LU2" s="1">
+      <c r="LU2">
         <f>SQRT(LT5/(LB2-2))</f>
         <v>193.93234769349226</v>
       </c>
-      <c r="LV2" s="1">
+      <c r="LV2">
         <f>LU2/SQRT(SUMSQ(Data!B11-LC2,Data!B23-LC2,Data!B35-LC2,Data!B47-LC2))</f>
         <v>0.34367278695190207</v>
       </c>
-      <c r="LW2" s="1">
+      <c r="LW2">
         <f>LO2/LV2</f>
         <v>1.9107428825501551</v>
       </c>
-      <c r="LX2" s="1">
+      <c r="LX2">
         <f>ABS(_xlfn.T.INV((100 - M2)/200,LB2-2))</f>
         <v>1.3862065601673439</v>
       </c>
-      <c r="LY2" s="1" t="str">
+      <c r="LY2" t="str">
         <f>IF(LW2&gt;LX2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="LZ2" s="1" t="str">
+      <c r="LZ2" t="str">
         <f>IF(LB2&gt;=K2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="MB2" s="1">
+      <c r="MB2">
         <f>IF(LY2="No",0,LE2)</f>
         <v>7</v>
       </c>
-      <c r="MC2" s="1">
+      <c r="MC2">
         <f>AVERAGE(Data!D83,Data!D95,Data!D107,Data!D119,Data!D131,Data!D143,Data!D155)</f>
         <v>1930.1047658302307</v>
       </c>
-      <c r="MD2" s="1">
+      <c r="MD2">
         <f>STDEV(Data!D83,Data!D95,Data!D107,Data!D119,Data!D131,Data!D143,Data!D155)</f>
         <v>160.39064381149416</v>
       </c>
-      <c r="ME2" s="1">
+      <c r="ME2">
         <f>SKEW(Data!D83,Data!D95,Data!D107,Data!D119,Data!D131,Data!D143,Data!D155)</f>
         <v>-0.5682264143926159</v>
       </c>
-      <c r="MF2" s="1">
+      <c r="MF2">
         <v>2</v>
       </c>
-      <c r="MG2" s="1">
+      <c r="MG2">
         <f>AVERAGE(Data!B12,Data!B24)</f>
         <v>1312.0852500000001</v>
       </c>
-      <c r="MH2" s="1">
+      <c r="MH2">
         <f>STDEV(Data!B12,Data!B24)</f>
         <v>85.555324329494567</v>
       </c>
-      <c r="MI2" s="1">
+      <c r="MI2">
         <v>0</v>
       </c>
-      <c r="ML2" s="1">
+      <c r="ML2">
         <f>AVERAGE(Data!C12,Data!C24)</f>
         <v>1831.2663499999999</v>
       </c>
-      <c r="MM2" s="1">
+      <c r="MM2">
         <f>STDEV(Data!C12,Data!C24)</f>
         <v>204.07038065433466</v>
       </c>
-      <c r="MN2" s="1">
+      <c r="MN2">
         <v>5</v>
       </c>
-      <c r="MO2" s="1">
+      <c r="MO2">
         <f>AVERAGE(Data!C12,Data!C24,Data!C36,Data!C48,Data!C60)</f>
         <v>1902.3748399999997</v>
       </c>
-      <c r="MP2" s="1">
+      <c r="MP2">
         <f>STDEV(Data!C12,Data!C24,Data!C36,Data!C48,Data!C60)</f>
         <v>252.77889886109668</v>
       </c>
-      <c r="MQ2" s="1">
+      <c r="MQ2">
         <f>SKEW(Data!C12,Data!C24,Data!C36,Data!C48,Data!C60)</f>
         <v>0.44578025733895271</v>
       </c>
-      <c r="MR2" s="1">
+      <c r="MR2">
         <f>(MS8 - MS2*MS5)/MF2</f>
         <v>-1298.3779885245517</v>
       </c>
-      <c r="MS2" s="1">
+      <c r="MS2">
         <f>(MF2*MS11 - MS5*MS8)/(MF2*MS14 - MS5^2)</f>
         <v>2.3852446619032959</v>
       </c>
-      <c r="MT2" s="1">
+      <c r="MT2">
         <f>(MF2*MS11 - MS5*MS8)/SQRT((MF2*MS14 - MS5^2)*(MF2*MS17 - MS8^2))</f>
         <v>0.9999999999999627</v>
       </c>
-      <c r="MU2" s="1">
+      <c r="MU2">
         <f>MT2^2</f>
         <v>0.99999999999992539</v>
       </c>
-      <c r="MV2" s="1">
+      <c r="MV2">
         <f>AVERAGE(Data!D12,Data!D24)</f>
         <v>1831.2663499999999</v>
       </c>
-      <c r="MW2" s="1">
+      <c r="MW2">
         <f>STDEV(Data!D12,Data!D24)</f>
         <v>204.07038065433224</v>
       </c>
-      <c r="MX2" s="1">
+      <c r="MX2">
         <f>SQRT(SUMSQ(Data!C12-Data!D12,Data!C24-Data!D24)/MF2)</f>
         <v>1.7090879257890388E-12</v>
       </c>
-      <c r="NC2" s="1" t="s">
+      <c r="NC2" t="s">
         <v>546</v>
       </c>
-      <c r="ND2" s="1" t="s">
+      <c r="ND2" t="s">
         <v>546</v>
       </c>
-      <c r="NF2" s="1">
+      <c r="NF2">
         <f>IF(NC2="No",0,MI2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="FU4" s="1" t="s">
+      <c r="FU4" t="s">
         <v>535</v>
       </c>
-      <c r="FZ4" s="1" t="s">
+      <c r="FZ4" t="s">
         <v>545</v>
       </c>
-      <c r="GY4" s="1" t="s">
+      <c r="GY4" t="s">
         <v>533</v>
       </c>
-      <c r="HD4" s="1" t="s">
+      <c r="HD4" t="s">
         <v>545</v>
       </c>
-      <c r="IC4" s="1" t="s">
+      <c r="IC4" t="s">
         <v>535</v>
       </c>
-      <c r="IH4" s="1" t="s">
+      <c r="IH4" t="s">
         <v>545</v>
       </c>
-      <c r="JG4" s="1" t="s">
+      <c r="JG4" t="s">
         <v>535</v>
       </c>
-      <c r="JL4" s="1" t="s">
+      <c r="JL4" t="s">
         <v>545</v>
       </c>
-      <c r="KK4" s="1" t="s">
+      <c r="KK4" t="s">
         <v>533</v>
       </c>
-      <c r="KP4" s="1" t="s">
+      <c r="KP4" t="s">
         <v>545</v>
       </c>
-      <c r="LO4" s="1" t="s">
+      <c r="LO4" t="s">
         <v>535</v>
       </c>
-      <c r="LT4" s="1" t="s">
+      <c r="LT4" t="s">
         <v>545</v>
       </c>
-      <c r="MS4" s="1" t="s">
+      <c r="MS4" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" t="s">
         <v>533</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" t="s">
         <v>545</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BE5" t="s">
         <v>533</v>
       </c>
-      <c r="CI5" s="1" t="s">
+      <c r="CI5" t="s">
         <v>535</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="CN5" t="s">
         <v>545</v>
       </c>
-      <c r="DM5" s="1" t="s">
+      <c r="DM5" t="s">
         <v>535</v>
       </c>
-      <c r="DR5" s="1" t="s">
+      <c r="DR5" t="s">
         <v>545</v>
       </c>
-      <c r="EQ5" s="1" t="s">
+      <c r="EQ5" t="s">
         <v>533</v>
       </c>
-      <c r="EV5" s="1" t="s">
+      <c r="EV5" t="s">
         <v>545</v>
       </c>
-      <c r="FU5" s="1">
+      <c r="FU5">
         <f>SUM(Data!B18,Data!B30,Data!B42,Data!B54)</f>
         <v>67607.596700000009</v>
       </c>
-      <c r="FZ5" s="1">
+      <c r="FZ5">
         <f>SUMSQ(Data!C18-Data!D18,Data!C30-Data!D30,Data!C42-Data!D42,Data!C54-Data!D54)</f>
         <v>1557331.4189193726</v>
       </c>
-      <c r="GY5" s="1">
+      <c r="GY5">
         <f>SUM(Data!B7,Data!B19,Data!B31,Data!B43,Data!B55)</f>
         <v>63424.396399999998</v>
       </c>
-      <c r="HD5" s="1">
+      <c r="HD5">
         <f>SUMSQ(Data!C7-Data!D7,Data!C19-Data!D19,Data!C31-Data!D31,Data!C43-Data!D43,Data!C55-Data!D55)</f>
         <v>19375142.448890042</v>
       </c>
-      <c r="IC5" s="1">
+      <c r="IC5">
         <f>SUM(Data!B8,Data!B20,Data!B32,Data!B44,Data!B56)</f>
         <v>38277.583500000001</v>
       </c>
-      <c r="IH5" s="1">
+      <c r="IH5">
         <f>SUMSQ(Data!C8-Data!D8,Data!C20-Data!D20,Data!C32-Data!D32,Data!C44-Data!D44,Data!C56-Data!D56)</f>
         <v>568171.85365967115</v>
       </c>
-      <c r="JG5" s="1">
+      <c r="JG5">
         <f>SUM(Data!B9,Data!B21,Data!B33,Data!B45,Data!B57)</f>
         <v>19114.989300000001</v>
       </c>
-      <c r="JL5" s="1">
+      <c r="JL5">
         <f>SUMSQ(Data!C9-Data!D9,Data!C21-Data!D21,Data!C33-Data!D33,Data!C45-Data!D45,Data!C57-Data!D57)</f>
         <v>378276.35006180051</v>
       </c>
-      <c r="KK5" s="1">
+      <c r="KK5">
         <f>SUM(Data!B10,Data!B22,Data!B34,Data!B46,Data!B58)</f>
         <v>12597.208499999999</v>
       </c>
-      <c r="KP5" s="1">
+      <c r="KP5">
         <f>SUMSQ(Data!C10-Data!D10,Data!C22-Data!D22,Data!C34-Data!D34,Data!C46-Data!D46,Data!C58-Data!D58)</f>
         <v>263123.66382485419</v>
       </c>
-      <c r="LO5" s="1">
+      <c r="LO5">
         <f>SUM(Data!B11,Data!B23,Data!B35,Data!B47)</f>
         <v>6051.6585999999998</v>
       </c>
-      <c r="LT5" s="1">
+      <c r="LT5">
         <f>SUMSQ(Data!C11-Data!D11,Data!C23-Data!D23,Data!C35-Data!D35,Data!C47-Data!D47)</f>
         <v>75219.510963819135</v>
       </c>
-      <c r="MS5" s="1">
+      <c r="MS5">
         <f>SUM(Data!B12,Data!B24)</f>
         <v>2624.1705000000002</v>
       </c>
     </row>
     <row r="6" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA6" s="1">
+      <c r="AA6">
         <f>SUM(Data!B13,Data!B25)</f>
         <v>1929.9454999999998</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6">
         <f>SUMSQ(Data!C13-Data!D13,Data!C25-Data!D25)</f>
         <v>4.1359030627651384E-25</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BE6">
         <f>SUM(Data!B14,Data!B26)</f>
         <v>1624.0898</v>
       </c>
-      <c r="CI6" s="1">
+      <c r="CI6">
         <f>SUM(Data!B15,Data!B27,Data!B51)</f>
         <v>2848.306</v>
       </c>
-      <c r="CN6" s="1">
+      <c r="CN6">
         <f>SUMSQ(Data!C15-Data!D15,Data!C27-Data!D27,Data!C51-Data!D51)</f>
         <v>45241.956436104883</v>
       </c>
-      <c r="DM6" s="1">
+      <c r="DM6">
         <f>SUM(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64)</f>
         <v>8283.0961000000007</v>
       </c>
-      <c r="DR6" s="1">
+      <c r="DR6">
         <f>SUMSQ(Data!C16-Data!D16,Data!C28-Data!D28,Data!C40-Data!D40,Data!C52-Data!D52,Data!C64-Data!D64)</f>
         <v>5011431.7381822895</v>
       </c>
-      <c r="EQ6" s="1">
+      <c r="EQ6">
         <f>SUM(Data!B17,Data!B29,Data!B41,Data!B53)</f>
         <v>33618.340900000003</v>
       </c>
-      <c r="EV6" s="1">
+      <c r="EV6">
         <f>SUMSQ(Data!C17-Data!D17,Data!C29-Data!D29,Data!C41-Data!D41,Data!C53-Data!D53)</f>
         <v>371693.93016992148</v>
       </c>
     </row>
     <row r="7" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="FU7" s="1" t="s">
+      <c r="FU7" t="s">
         <v>536</v>
       </c>
-      <c r="GY7" s="1" t="s">
+      <c r="GY7" t="s">
         <v>534</v>
       </c>
-      <c r="IC7" s="1" t="s">
+      <c r="IC7" t="s">
         <v>536</v>
       </c>
-      <c r="JG7" s="1" t="s">
+      <c r="JG7" t="s">
         <v>536</v>
       </c>
-      <c r="KK7" s="1" t="s">
+      <c r="KK7" t="s">
         <v>536</v>
       </c>
-      <c r="LO7" s="1" t="s">
+      <c r="LO7" t="s">
         <v>536</v>
       </c>
-      <c r="MS7" s="1" t="s">
+      <c r="MS7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" t="s">
         <v>534</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BE8" t="s">
         <v>534</v>
       </c>
-      <c r="CI8" s="1" t="s">
+      <c r="CI8" t="s">
         <v>536</v>
       </c>
-      <c r="DM8" s="1" t="s">
+      <c r="DM8" t="s">
         <v>536</v>
       </c>
-      <c r="EQ8" s="1" t="s">
+      <c r="EQ8" t="s">
         <v>534</v>
       </c>
-      <c r="FU8" s="1">
+      <c r="FU8">
         <f>SUM(Data!C18,Data!C30,Data!C42,Data!C54)</f>
         <v>97481.090400000001</v>
       </c>
-      <c r="GY8" s="1">
+      <c r="GY8">
         <f>SUM(Data!C7,Data!C19,Data!C31,Data!C43,Data!C55)</f>
         <v>87719.29389999999</v>
       </c>
-      <c r="IC8" s="1">
+      <c r="IC8">
         <f>SUM(Data!C8,Data!C20,Data!C32,Data!C44,Data!C56)</f>
         <v>55699.655299999999</v>
       </c>
-      <c r="JG8" s="1">
+      <c r="JG8">
         <f>SUM(Data!C9,Data!C21,Data!C33,Data!C45,Data!C57)</f>
         <v>27601.393700000001</v>
       </c>
-      <c r="KK8" s="1">
+      <c r="KK8">
         <f>SUM(Data!C10,Data!C22,Data!C34,Data!C46,Data!C58)</f>
         <v>17048.182399999998</v>
       </c>
-      <c r="LO8" s="1">
+      <c r="LO8">
         <f>SUM(Data!C11,Data!C23,Data!C35,Data!C47)</f>
         <v>9145.9184000000005</v>
       </c>
-      <c r="MS8" s="1">
+      <c r="MS8">
         <f>SUM(Data!C12,Data!C24)</f>
         <v>3662.5326999999997</v>
       </c>
     </row>
     <row r="9" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA9" s="1">
+      <c r="AA9">
         <f>SUM(Data!C13,Data!C25)</f>
         <v>2772.933</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BE9">
         <f>SUM(Data!C14,Data!C26)</f>
         <v>2351.6377000000002</v>
       </c>
-      <c r="CI9" s="1">
+      <c r="CI9">
         <f>SUM(Data!C15,Data!C27,Data!C51)</f>
         <v>4644.3652000000002</v>
       </c>
-      <c r="DM9" s="1">
+      <c r="DM9">
         <f>SUM(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64)</f>
         <v>9815.3499000000011</v>
       </c>
-      <c r="EQ9" s="1">
+      <c r="EQ9">
         <f>SUM(Data!C17,Data!C29,Data!C41,Data!C53)</f>
         <v>48258.555899999999</v>
       </c>
     </row>
     <row r="10" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="FU10" s="1" t="s">
+      <c r="FU10" t="s">
         <v>541</v>
       </c>
-      <c r="GY10" s="1" t="s">
+      <c r="GY10" t="s">
         <v>541</v>
       </c>
-      <c r="IC10" s="1" t="s">
+      <c r="IC10" t="s">
         <v>541</v>
       </c>
-      <c r="JG10" s="1" t="s">
+      <c r="JG10" t="s">
         <v>541</v>
       </c>
-      <c r="KK10" s="1" t="s">
+      <c r="KK10" t="s">
         <v>541</v>
       </c>
-      <c r="LO10" s="1" t="s">
+      <c r="LO10" t="s">
         <v>541</v>
       </c>
-      <c r="MS10" s="1" t="s">
+      <c r="MS10" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" t="s">
         <v>537</v>
       </c>
-      <c r="BE11" s="1" t="s">
+      <c r="BE11" t="s">
         <v>541</v>
       </c>
-      <c r="CI11" s="1" t="s">
+      <c r="CI11" t="s">
         <v>541</v>
       </c>
-      <c r="DM11" s="1" t="s">
+      <c r="DM11" t="s">
         <v>541</v>
       </c>
-      <c r="EQ11" s="1" t="s">
+      <c r="EQ11" t="s">
         <v>537</v>
       </c>
-      <c r="FU11" s="1">
+      <c r="FU11">
         <f>SUM(Data!B18*Data!C18,Data!B30*Data!C30,Data!B42*Data!C42,Data!B54*Data!C54)</f>
         <v>1713444111.8547285</v>
       </c>
-      <c r="GY11" s="1">
+      <c r="GY11">
         <f>SUM(Data!B7*Data!C7,Data!B19*Data!C19,Data!B31*Data!C31,Data!B43*Data!C43,Data!B55*Data!C55)</f>
         <v>1169350210.83618</v>
       </c>
-      <c r="IC11" s="1">
+      <c r="IC11">
         <f>SUM(Data!B8*Data!C8,Data!B20*Data!C20,Data!B32*Data!C32,Data!B44*Data!C44,Data!B56*Data!C56)</f>
         <v>495186259.97711205</v>
       </c>
-      <c r="JG11" s="1">
+      <c r="JG11">
         <f>SUM(Data!B9*Data!C9,Data!B21*Data!C21,Data!B33*Data!C33,Data!B45*Data!C45,Data!B57*Data!C57)</f>
         <v>108233708.21220194</v>
       </c>
-      <c r="KK11" s="1">
+      <c r="KK11">
         <f>SUM(Data!B10*Data!C10,Data!B22*Data!C22,Data!B34*Data!C34,Data!B46*Data!C46,Data!B58*Data!C58)</f>
         <v>43542892.265499882</v>
       </c>
-      <c r="LO11" s="1">
+      <c r="LO11">
         <f>SUM(Data!B11*Data!C11,Data!B23*Data!C23,Data!B35*Data!C35,Data!B47*Data!C47)</f>
         <v>14046095.660106199</v>
       </c>
-      <c r="MS11" s="1">
+      <c r="MS11">
         <f>SUM(Data!B12*Data!C12,Data!B24*Data!C24)</f>
         <v>4823014.4409155995</v>
       </c>
     </row>
     <row r="12" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA12" s="1">
+      <c r="AA12">
         <f>SUM(Data!B13*Data!C13,Data!B25*Data!C25)</f>
         <v>2711779.7680297499</v>
       </c>
-      <c r="BE12" s="1">
+      <c r="BE12">
         <f>SUM(Data!B14*Data!C14,Data!B26*Data!C26)</f>
         <v>1892720.54819197</v>
       </c>
-      <c r="CI12" s="1">
+      <c r="CI12">
         <f>SUM(Data!B15*Data!C15,Data!B27*Data!C27,Data!B51*Data!C51)</f>
         <v>4379128.2554714503</v>
       </c>
-      <c r="DM12" s="1">
+      <c r="DM12">
         <f>SUM(Data!B16*Data!C16,Data!B28*Data!C28,Data!B40*Data!C40,Data!B52*Data!C52,Data!B64*Data!C64)</f>
         <v>16945056.464794811</v>
       </c>
-      <c r="EQ12" s="1">
+      <c r="EQ12">
         <f>SUM(Data!B17*Data!C17,Data!B29*Data!C29,Data!B41*Data!C41,Data!B53*Data!C53)</f>
         <v>432175027.2647351</v>
       </c>
     </row>
     <row r="13" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="FU13" s="1" t="s">
+      <c r="FU13" t="s">
         <v>542</v>
       </c>
-      <c r="GY13" s="1" t="s">
+      <c r="GY13" t="s">
         <v>542</v>
       </c>
-      <c r="IC13" s="1" t="s">
+      <c r="IC13" t="s">
         <v>542</v>
       </c>
-      <c r="JG13" s="1" t="s">
+      <c r="JG13" t="s">
         <v>542</v>
       </c>
-      <c r="KK13" s="1" t="s">
+      <c r="KK13" t="s">
         <v>542</v>
       </c>
-      <c r="LO13" s="1" t="s">
+      <c r="LO13" t="s">
         <v>542</v>
       </c>
-      <c r="MS13" s="1" t="s">
+      <c r="MS13" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" t="s">
         <v>538</v>
       </c>
-      <c r="BE14" s="1" t="s">
+      <c r="BE14" t="s">
         <v>542</v>
       </c>
-      <c r="CI14" s="1" t="s">
+      <c r="CI14" t="s">
         <v>542</v>
       </c>
-      <c r="DM14" s="1" t="s">
+      <c r="DM14" t="s">
         <v>542</v>
       </c>
-      <c r="EQ14" s="1" t="s">
+      <c r="EQ14" t="s">
         <v>538</v>
       </c>
-      <c r="FU14" s="1">
+      <c r="FU14">
         <f>SUMSQ(Data!B18,Data!B30,Data!B42,Data!B54)</f>
         <v>1186360451.8701487</v>
       </c>
-      <c r="GY14" s="1">
+      <c r="GY14">
         <f>SUMSQ(Data!B7,Data!B19,Data!B31,Data!B43,Data!B55)</f>
         <v>843859700.64469719</v>
       </c>
-      <c r="IC14" s="1">
+      <c r="IC14">
         <f>SUMSQ(Data!B8,Data!B20,Data!B32,Data!B44,Data!B56)</f>
         <v>337947844.87304264</v>
       </c>
-      <c r="JG14" s="1">
+      <c r="JG14">
         <f>SUMSQ(Data!B9,Data!B21,Data!B33,Data!B45,Data!B57)</f>
         <v>75080197.923552722</v>
       </c>
-      <c r="KK14" s="1">
+      <c r="KK14">
         <f>SUMSQ(Data!B10,Data!B22,Data!B34,Data!B46,Data!B58)</f>
         <v>32382770.710017972</v>
       </c>
-      <c r="LO14" s="1">
+      <c r="LO14">
         <f>SUMSQ(Data!B11,Data!B23,Data!B35,Data!B47)</f>
         <v>9474070.1984675601</v>
       </c>
-      <c r="MS14" s="1">
+      <c r="MS14">
         <f>SUMSQ(Data!B12,Data!B24)</f>
         <v>3450455.1200562501</v>
       </c>
     </row>
     <row r="15" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="AA15" s="1">
+      <c r="AA15">
         <f>SUMSQ(Data!B13,Data!B25)</f>
         <v>1894072.7550452498</v>
       </c>
-      <c r="BE15" s="1">
+      <c r="BE15">
         <f>SUMSQ(Data!B14,Data!B26)</f>
         <v>1332979.5937923398</v>
       </c>
-      <c r="CI15" s="1">
+      <c r="CI15">
         <f>SUMSQ(Data!B15,Data!B27,Data!B51)</f>
         <v>2771025.9738425007</v>
       </c>
-      <c r="DM15" s="1">
+      <c r="DM15">
         <f>SUMSQ(Data!B16,Data!B28,Data!B40,Data!B52,Data!B64)</f>
         <v>14609880.880597912</v>
       </c>
-      <c r="EQ15" s="1">
+      <c r="EQ15">
         <f>SUMSQ(Data!B17,Data!B29,Data!B41,Data!B53)</f>
         <v>303555487.62286603</v>
       </c>
     </row>
     <row r="16" spans="1:373" x14ac:dyDescent="0.25">
-      <c r="FU16" s="1" t="s">
+      <c r="FU16" t="s">
         <v>539</v>
       </c>
-      <c r="GY16" s="1" t="s">
+      <c r="GY16" t="s">
         <v>539</v>
       </c>
-      <c r="IC16" s="1" t="s">
+      <c r="IC16" t="s">
         <v>539</v>
       </c>
-      <c r="JG16" s="1" t="s">
+      <c r="JG16" t="s">
         <v>539</v>
       </c>
-      <c r="KK16" s="1" t="s">
+      <c r="KK16" t="s">
         <v>539</v>
       </c>
-      <c r="LO16" s="1" t="s">
+      <c r="LO16" t="s">
         <v>543</v>
       </c>
-      <c r="MS16" s="1" t="s">
+      <c r="MS16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="27:357" x14ac:dyDescent="0.25">
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" t="s">
         <v>540</v>
       </c>
-      <c r="BE17" s="1" t="s">
+      <c r="BE17" t="s">
         <v>539</v>
       </c>
-      <c r="CI17" s="1" t="s">
+      <c r="CI17" t="s">
         <v>539</v>
       </c>
-      <c r="DM17" s="1" t="s">
+      <c r="DM17" t="s">
         <v>539</v>
       </c>
-      <c r="EQ17" s="1" t="s">
+      <c r="EQ17" t="s">
         <v>539</v>
       </c>
-      <c r="FU17" s="1">
+      <c r="FU17">
         <f>SUMSQ(Data!C18,Data!C30,Data!C42,Data!C54)</f>
         <v>2476443014.269309</v>
       </c>
-      <c r="GY17" s="1">
+      <c r="GY17">
         <f>SUMSQ(Data!C7,Data!C19,Data!C31,Data!C43,Data!C55)</f>
         <v>1639885349.1917238</v>
       </c>
-      <c r="IC17" s="1">
+      <c r="IC17">
         <f>SUMSQ(Data!C8,Data!C20,Data!C32,Data!C44,Data!C56)</f>
         <v>726377795.46484005</v>
       </c>
-      <c r="JG17" s="1">
+      <c r="JG17">
         <f>SUMSQ(Data!C9,Data!C21,Data!C33,Data!C45,Data!C57)</f>
         <v>156420902.68081552</v>
       </c>
-      <c r="KK17" s="1">
+      <c r="KK17">
         <f>SUMSQ(Data!C10,Data!C22,Data!C34,Data!C46,Data!C58)</f>
         <v>58932867.80746942</v>
       </c>
-      <c r="LO17" s="1">
+      <c r="LO17">
         <f>SUMSQ(Data!C11,Data!C23,Data!C35,Data!C47)</f>
         <v>21124486.254948542</v>
       </c>
-      <c r="MS17" s="1">
+      <c r="MS17">
         <f>SUMSQ(Data!C12,Data!C24)</f>
         <v>6748717.6095450502</v>
       </c>
     </row>
     <row r="18" spans="27:357" x14ac:dyDescent="0.25">
-      <c r="AA18" s="1">
+      <c r="AA18">
         <f>SUMSQ(Data!C13,Data!C25)</f>
         <v>3885369.2459324999</v>
       </c>
-      <c r="BE18" s="1">
+      <c r="BE18">
         <f>SUMSQ(Data!C14,Data!C26)</f>
         <v>2785325.95098245</v>
       </c>
-      <c r="CI18" s="1">
+      <c r="CI18">
         <f>SUMSQ(Data!C15,Data!C27,Data!C51)</f>
         <v>7249127.5856626201</v>
       </c>
-      <c r="DM18" s="1">
+      <c r="DM18">
         <f>SUMSQ(Data!C16,Data!C28,Data!C40,Data!C52,Data!C64)</f>
         <v>24807718.412314631</v>
       </c>
-      <c r="EQ18" s="1">
+      <c r="EQ18">
         <f>SUMSQ(Data!C17,Data!C29,Data!C41,Data!C53)</f>
         <v>616229542.09793448</v>
       </c>
@@ -6952,11 +6949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:NF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="MO1" workbookViewId="0">
+      <selection activeCell="NF13" sqref="NF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7126,993 +7123,994 @@
     <col min="356" max="356" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="357" max="359" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="362" max="364" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:370" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:370" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>3</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>70</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>2</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>964.97274999999991</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>178.12338016140717</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>1386.4665</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>201.9666672696267</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>5</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>1582.8329799999999</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>343.90206794566836</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>0.32105951490261836</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>292.32416929134297</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>1.133858267716531</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="2">
         <v>0.99999999999999778</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <v>0.99999999999999556</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <v>1386.4665</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <v>201.9666672696267</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AK1" s="2" t="s">
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>0</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="AR1" s="2">
         <v>2</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>812.04489999999998</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>118.93592628100198</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="AU1" s="2">
         <v>0</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>1175.8188500000001</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>142.21819486902859</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>5</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>1297.0305000000001</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>230.2813919900486</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>0.62996274790260331</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>2146.825369575487</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>-1.1957547169811509</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>-1.0000000000000222</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="2">
         <v>1.0000000000000444</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>1175.8188500000001</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="2">
         <v>142.21819486903087</v>
       </c>
-      <c r="BJ1" s="3">
+      <c r="BJ1" s="2">
         <v>1.5916157281026244E-12</v>
       </c>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BO1" s="2" t="s">
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BO1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="1">
         <v>0</v>
       </c>
-      <c r="BV1" s="3">
+      <c r="BV1" s="2">
         <v>3</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="1">
         <v>949.43533333333335</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="1">
         <v>182.67952443715117</v>
       </c>
-      <c r="BY1" s="3">
+      <c r="BY1" s="2">
         <v>6</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="1">
         <v>831.61543333333327</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="1">
         <v>350.96824201321527</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="1">
         <v>1548.1217333333334</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="1">
         <v>171.87914650359227</v>
       </c>
-      <c r="CD1" s="3">
+      <c r="CD1" s="2">
         <v>5</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CE1" s="1">
         <v>1611.3953799999999</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CF1" s="1">
         <v>159.33011305367546</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CG1" s="1">
         <v>-9.2088357567258111E-2</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CH1" s="1">
         <v>1980.5105588635104</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CI1" s="1">
         <v>-0.4554168255062942</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CJ1" s="1">
         <v>-0.48403387378018953</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CK1" s="1">
         <v>0.23428879096665645</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CL1" s="1">
         <v>1548.1217333333334</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CM1" s="1">
         <v>83.195329104166447</v>
       </c>
-      <c r="CN1" s="3">
+      <c r="CN1" s="2">
         <v>122.80330673629393</v>
       </c>
-      <c r="CO1" s="3">
+      <c r="CO1" s="2">
         <v>212.70156660472645</v>
       </c>
-      <c r="CP1" s="3">
+      <c r="CP1" s="2">
         <v>0.8233146028741134</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CQ1" s="1">
         <v>-0.55315042866539366</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CR1" s="1">
         <v>1.9626105055051506</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CV1" s="1">
         <v>0</v>
       </c>
-      <c r="CZ1" s="3">
+      <c r="CZ1" s="2">
         <v>5</v>
       </c>
-      <c r="DA1" s="2">
+      <c r="DA1" s="1">
         <v>1656.61922</v>
       </c>
-      <c r="DB1" s="2">
+      <c r="DB1" s="1">
         <v>471.15408313811395</v>
       </c>
-      <c r="DC1" s="3">
+      <c r="DC1" s="2">
         <v>7</v>
       </c>
-      <c r="DD1" s="2">
+      <c r="DD1" s="1">
         <v>1426.4198571428572</v>
       </c>
-      <c r="DE1" s="2">
+      <c r="DE1" s="1">
         <v>296.34452210106548</v>
       </c>
-      <c r="DF1" s="2">
+      <c r="DF1" s="1">
         <v>1963.0699800000002</v>
       </c>
-      <c r="DG1" s="2">
+      <c r="DG1" s="1">
         <v>1176.807087039824</v>
       </c>
-      <c r="DH1" s="3">
+      <c r="DH1" s="2">
         <v>5</v>
       </c>
-      <c r="DI1" s="2">
+      <c r="DI1" s="1">
         <v>1963.0699800000002</v>
       </c>
-      <c r="DJ1" s="2">
+      <c r="DJ1" s="1">
         <v>1176.807087039824</v>
       </c>
-      <c r="DK1" s="2">
+      <c r="DK1" s="1">
         <v>-0.87088610602235716</v>
       </c>
-      <c r="DL1" s="2">
+      <c r="DL1" s="1">
         <v>685.52958091389212</v>
       </c>
-      <c r="DM1" s="2">
+      <c r="DM1" s="1">
         <v>0.77117323260689197</v>
       </c>
-      <c r="DN1" s="2">
+      <c r="DN1" s="1">
         <v>0.30875189430029326</v>
       </c>
-      <c r="DO1" s="2">
+      <c r="DO1" s="1">
         <v>9.5327732234019469E-2</v>
       </c>
-      <c r="DP1" s="2">
+      <c r="DP1" s="1">
         <v>1963.0699800000002</v>
       </c>
-      <c r="DQ1" s="2">
+      <c r="DQ1" s="1">
         <v>363.34141734955455</v>
       </c>
-      <c r="DR1" s="2">
+      <c r="DR1" s="1">
         <v>1001.1425211409502</v>
       </c>
-      <c r="DS1" s="2">
+      <c r="DS1" s="1">
         <v>1292.4694371863357</v>
       </c>
-      <c r="DT1" s="2">
+      <c r="DT1" s="1">
         <v>1.3715995291581298</v>
       </c>
-      <c r="DU1" s="2">
+      <c r="DU1" s="1">
         <v>0.56224372800727651</v>
       </c>
-      <c r="DV1" s="2">
+      <c r="DV1" s="1">
         <v>1.2497781050332251</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DW1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DX1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="DZ1" s="2">
+      <c r="DZ1" s="1">
         <v>0</v>
       </c>
-      <c r="ED1" s="2">
+      <c r="ED1" s="1">
         <v>4</v>
       </c>
-      <c r="EE1" s="2">
+      <c r="EE1" s="1">
         <v>8404.5852250000007</v>
       </c>
-      <c r="EF1" s="2">
+      <c r="EF1" s="1">
         <v>2646.2096418407459</v>
       </c>
-      <c r="EG1" s="2">
+      <c r="EG1" s="1">
         <v>8</v>
       </c>
-      <c r="EH1" s="2">
+      <c r="EH1" s="1">
         <v>7877.4702374999997</v>
       </c>
-      <c r="EI1" s="2">
+      <c r="EI1" s="1">
         <v>3348.1186038697811</v>
       </c>
-      <c r="EJ1" s="2">
+      <c r="EJ1" s="1">
         <v>12064.638975</v>
       </c>
-      <c r="EK1" s="2">
+      <c r="EK1" s="1">
         <v>3366.8723225756708</v>
       </c>
-      <c r="EL1" s="2">
+      <c r="EL1" s="1">
         <v>4</v>
       </c>
-      <c r="EM1" s="2">
+      <c r="EM1" s="1">
         <v>12064.638975</v>
       </c>
-      <c r="EN1" s="2">
+      <c r="EN1" s="1">
         <v>3366.8723225756708</v>
       </c>
-      <c r="EO1" s="2">
+      <c r="EO1" s="1">
         <v>0.17940016383867585</v>
       </c>
-      <c r="EP1" s="2">
+      <c r="EP1" s="1">
         <v>1429.7673675882324</v>
       </c>
-      <c r="EQ1" s="2">
+      <c r="EQ1" s="1">
         <v>1.2653654312145746</v>
       </c>
-      <c r="ER1" s="2">
+      <c r="ER1" s="1">
         <v>0.99452010166231175</v>
       </c>
-      <c r="ES1" s="2">
+      <c r="ES1" s="1">
         <v>0.98907023261041493</v>
       </c>
-      <c r="ET1" s="2">
+      <c r="ET1" s="1">
         <v>12064.638974999998</v>
       </c>
-      <c r="EU1" s="2">
+      <c r="EU1" s="1">
         <v>3348.4222045319939</v>
       </c>
-      <c r="EV1" s="2">
+      <c r="EV1" s="1">
         <v>304.83353250992644</v>
       </c>
-      <c r="EW1" s="2">
+      <c r="EW1" s="1">
         <v>431.09971594163773</v>
       </c>
-      <c r="EX1" s="2">
+      <c r="EX1" s="1">
         <v>9.4057376676074556E-2</v>
       </c>
-      <c r="EY1" s="2">
+      <c r="EY1" s="1">
         <v>13.453122720745055</v>
       </c>
-      <c r="EZ1" s="2">
+      <c r="EZ1" s="1">
         <v>1.3862065601673439</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FA1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FB1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="FD1" s="2">
+      <c r="FD1" s="1">
         <v>8</v>
       </c>
-      <c r="FE1" s="2">
+      <c r="FE1" s="1">
         <v>11397.645891542397</v>
       </c>
-      <c r="FF1" s="2">
+      <c r="FF1" s="1">
         <v>4236.5935409432195</v>
       </c>
-      <c r="FG1" s="2">
+      <c r="FG1" s="1">
         <v>0.1944012255664703</v>
       </c>
-      <c r="FH1" s="2">
+      <c r="FH1" s="1">
         <v>4</v>
       </c>
-      <c r="FI1" s="2">
+      <c r="FI1" s="1">
         <v>16901.899175000002</v>
       </c>
-      <c r="FJ1" s="2">
+      <c r="FJ1" s="1">
         <v>3815.0434240728973</v>
       </c>
-      <c r="FK1" s="2">
+      <c r="FK1" s="1">
         <v>8</v>
       </c>
-      <c r="FL1" s="2">
+      <c r="FL1" s="1">
         <v>16364.8667</v>
       </c>
-      <c r="FM1" s="2">
+      <c r="FM1" s="1">
         <v>6861.5508597481366</v>
       </c>
-      <c r="FN1" s="2">
+      <c r="FN1" s="1">
         <v>24370.2726</v>
       </c>
-      <c r="FO1" s="2">
+      <c r="FO1" s="1">
         <v>5796.6159057409159</v>
       </c>
-      <c r="FP1" s="2">
+      <c r="FP1" s="1">
         <v>4</v>
       </c>
-      <c r="FQ1" s="2">
+      <c r="FQ1" s="1">
         <v>24370.2726</v>
       </c>
-      <c r="FR1" s="2">
+      <c r="FR1" s="1">
         <v>5796.6159057409159</v>
       </c>
-      <c r="FS1" s="2">
+      <c r="FS1" s="1">
         <v>1.6637202918283807</v>
       </c>
-      <c r="FT1" s="2">
+      <c r="FT1" s="1">
         <v>-1111.496302580319</v>
       </c>
-      <c r="FU1" s="2">
+      <c r="FU1" s="1">
         <v>1.5076275534923913</v>
       </c>
-      <c r="FV1" s="2">
+      <c r="FV1" s="1">
         <v>0.99224524747376497</v>
       </c>
-      <c r="FW1" s="2">
+      <c r="FW1" s="1">
         <v>0.9845506311342731</v>
       </c>
-      <c r="FX1" s="2">
+      <c r="FX1" s="1">
         <v>24370.2726</v>
       </c>
-      <c r="FY1" s="2">
+      <c r="FY1" s="1">
         <v>5751.6645839022594</v>
       </c>
-      <c r="FZ1" s="2">
+      <c r="FZ1" s="1">
         <v>623.96542751168761</v>
       </c>
-      <c r="GA1" s="2">
+      <c r="GA1" s="1">
         <v>882.42037003895507</v>
       </c>
-      <c r="GB1" s="2">
+      <c r="GB1" s="1">
         <v>0.13354124227411771</v>
       </c>
-      <c r="GC1" s="2">
+      <c r="GC1" s="1">
         <v>11.289602581333723</v>
       </c>
-      <c r="GD1" s="2">
+      <c r="GD1" s="1">
         <v>1.3862065601673439</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GE1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GF1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="GH1" s="2">
+      <c r="GH1" s="1">
         <v>8</v>
       </c>
-      <c r="GI1" s="2">
+      <c r="GI1" s="1">
         <v>23560.627643569787</v>
       </c>
-      <c r="GJ1" s="2">
+      <c r="GJ1" s="1">
         <v>10344.663135845687</v>
       </c>
-      <c r="GK1" s="2">
+      <c r="GK1" s="1">
         <v>-0.41658865793182287</v>
       </c>
-      <c r="GL1" s="2">
+      <c r="GL1" s="1">
         <v>5</v>
       </c>
-      <c r="GM1" s="2">
+      <c r="GM1" s="1">
         <v>12684.879279999999</v>
       </c>
-      <c r="GN1" s="2">
+      <c r="GN1" s="1">
         <v>3135.6374512940206</v>
       </c>
-      <c r="GO1" s="2">
+      <c r="GO1" s="1">
         <v>8</v>
       </c>
-      <c r="GP1" s="2">
+      <c r="GP1" s="1">
         <v>9088.3970750000008</v>
       </c>
-      <c r="GQ1" s="2">
+      <c r="GQ1" s="1">
         <v>3647.7056772456081</v>
       </c>
-      <c r="GR1" s="2">
+      <c r="GR1" s="1">
         <v>17543.858779999999</v>
       </c>
-      <c r="GS1" s="2">
+      <c r="GS1" s="1">
         <v>5023.7049258691759</v>
       </c>
-      <c r="GT1" s="2">
+      <c r="GT1" s="1">
         <v>5</v>
       </c>
-      <c r="GU1" s="2">
+      <c r="GU1" s="1">
         <v>17543.858779999999</v>
       </c>
-      <c r="GV1" s="2">
+      <c r="GV1" s="1">
         <v>5023.7049258691759</v>
       </c>
-      <c r="GW1" s="2">
+      <c r="GW1" s="1">
         <v>1.3340250073883344</v>
       </c>
-      <c r="GX1" s="2">
+      <c r="GX1" s="1">
         <v>-724.93383491117561</v>
       </c>
-      <c r="GY1" s="2">
+      <c r="GY1" s="1">
         <v>1.4402023237000938</v>
       </c>
-      <c r="GZ1" s="2">
+      <c r="GZ1" s="1">
         <v>0.89892866127151394</v>
       </c>
-      <c r="HA1" s="2">
+      <c r="HA1" s="1">
         <v>0.80807273805539626</v>
       </c>
-      <c r="HB1" s="2">
+      <c r="HB1" s="1">
         <v>17543.858779999999</v>
       </c>
-      <c r="HC1" s="2">
+      <c r="HC1" s="1">
         <v>4515.9523436346917</v>
       </c>
-      <c r="HD1" s="2">
+      <c r="HD1" s="1">
         <v>1968.5092049005025</v>
       </c>
-      <c r="HE1" s="2">
+      <c r="HE1" s="1">
         <v>2541.3344558118833</v>
       </c>
-      <c r="HF1" s="2">
+      <c r="HF1" s="1">
         <v>0.40523410236140689</v>
       </c>
-      <c r="HG1" s="2">
+      <c r="HG1" s="1">
         <v>3.5540007993099589</v>
       </c>
-      <c r="HH1" s="2">
+      <c r="HH1" s="1">
         <v>1.2497781050332251</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HI1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="HL1" s="2">
+      <c r="HL1" s="1">
         <v>8</v>
       </c>
-      <c r="HM1" s="2">
+      <c r="HM1" s="1">
         <v>12364.196751212959</v>
       </c>
-      <c r="HN1" s="2">
+      <c r="HN1" s="1">
         <v>5253.4341925431527</v>
       </c>
-      <c r="HO1" s="2">
+      <c r="HO1" s="1">
         <v>-0.87141911059251864</v>
       </c>
-      <c r="HP1" s="2">
+      <c r="HP1" s="1">
         <v>5</v>
       </c>
-      <c r="HQ1" s="2">
+      <c r="HQ1" s="1">
         <v>7655.5167000000001</v>
       </c>
-      <c r="HR1" s="2">
+      <c r="HR1" s="1">
         <v>3350.8642599017712</v>
       </c>
-      <c r="HS1" s="2">
+      <c r="HS1" s="1">
         <v>8</v>
       </c>
-      <c r="HT1" s="2">
+      <c r="HT1" s="1">
         <v>4084.2743874999996</v>
       </c>
-      <c r="HU1" s="2">
+      <c r="HU1" s="1">
         <v>1325.0358069578167</v>
       </c>
-      <c r="HV1" s="2">
+      <c r="HV1" s="1">
         <v>11139.931059999999</v>
       </c>
-      <c r="HW1" s="2">
+      <c r="HW1" s="1">
         <v>5145.0820051063456</v>
       </c>
-      <c r="HX1" s="2">
+      <c r="HX1" s="1">
         <v>5</v>
       </c>
-      <c r="HY1" s="2">
+      <c r="HY1" s="1">
         <v>11139.931059999999</v>
       </c>
-      <c r="HZ1" s="2">
+      <c r="HZ1" s="1">
         <v>5145.0820051063456</v>
       </c>
-      <c r="IA1" s="2">
+      <c r="IA1" s="1">
         <v>1.6201758220119336</v>
       </c>
-      <c r="IB1" s="2">
+      <c r="IB1" s="1">
         <v>-583.14725793083778</v>
       </c>
-      <c r="IC1" s="2">
+      <c r="IC1" s="1">
         <v>1.5313242433304126</v>
       </c>
-      <c r="ID1" s="2">
+      <c r="ID1" s="1">
         <v>0.99731348736606662</v>
       </c>
-      <c r="IE1" s="2">
+      <c r="IE1" s="1">
         <v>0.99463419208226556</v>
       </c>
-      <c r="IF1" s="2">
+      <c r="IF1" s="1">
         <v>11139.931059999999</v>
       </c>
-      <c r="IG1" s="2">
+      <c r="IG1" s="1">
         <v>5131.2596772970046</v>
       </c>
-      <c r="IH1" s="2">
+      <c r="IH1" s="1">
         <v>337.09697526369803</v>
       </c>
-      <c r="II1" s="2">
+      <c r="II1" s="1">
         <v>435.19032375106531</v>
       </c>
-      <c r="IJ1" s="2">
+      <c r="IJ1" s="1">
         <v>6.4937026688723962E-2</v>
       </c>
-      <c r="IK1" s="2">
+      <c r="IK1" s="1">
         <v>23.581680920976332</v>
       </c>
-      <c r="IL1" s="2">
+      <c r="IL1" s="1">
         <v>1.2497781050332251</v>
       </c>
-      <c r="IM1" s="2" t="s">
+      <c r="IM1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IN1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="IP1" s="2">
+      <c r="IP1" s="1">
         <v>8</v>
       </c>
-      <c r="IQ1" s="2">
+      <c r="IQ1" s="1">
         <v>5671.2011280613842</v>
       </c>
-      <c r="IR1" s="2">
+      <c r="IR1" s="1">
         <v>2029.0594544753785</v>
       </c>
-      <c r="IS1" s="2">
+      <c r="IS1" s="1">
         <v>-0.49501309234547308</v>
       </c>
-      <c r="IT1" s="2">
+      <c r="IT1" s="1">
         <v>5</v>
       </c>
-      <c r="IU1" s="2">
+      <c r="IU1" s="1">
         <v>3822.9978600000004</v>
       </c>
-      <c r="IV1" s="2">
+      <c r="IV1" s="1">
         <v>707.74902609078413</v>
       </c>
-      <c r="IW1" s="2">
+      <c r="IW1" s="1">
         <v>8</v>
       </c>
-      <c r="IX1" s="2">
+      <c r="IX1" s="1">
         <v>2329.3727750000003</v>
       </c>
-      <c r="IY1" s="2">
+      <c r="IY1" s="1">
         <v>964.34529020399361</v>
       </c>
-      <c r="IZ1" s="2">
+      <c r="IZ1" s="1">
         <v>5520.2787399999997</v>
       </c>
-      <c r="JA1" s="2">
+      <c r="JA1" s="1">
         <v>1006.6672544013186</v>
       </c>
-      <c r="JB1" s="2">
+      <c r="JB1" s="1">
         <v>5</v>
       </c>
-      <c r="JC1" s="2">
+      <c r="JC1" s="1">
         <v>5520.2787399999997</v>
       </c>
-      <c r="JD1" s="2">
+      <c r="JD1" s="1">
         <v>1006.6672544013186</v>
       </c>
-      <c r="JE1" s="2">
+      <c r="JE1" s="1">
         <v>2.2061361507368393</v>
       </c>
-      <c r="JF1" s="2">
+      <c r="JF1" s="1">
         <v>342.57018259262475</v>
       </c>
-      <c r="JG1" s="2">
+      <c r="JG1" s="1">
         <v>1.3543582149447959</v>
       </c>
-      <c r="JH1" s="2">
+      <c r="JH1" s="1">
         <v>0.95219716685360722</v>
       </c>
-      <c r="JI1" s="2">
+      <c r="JI1" s="1">
         <v>0.90667944456403626</v>
       </c>
-      <c r="JJ1" s="2">
+      <c r="JJ1" s="1">
         <v>5520.2787399999997</v>
       </c>
-      <c r="JK1" s="2">
+      <c r="JK1" s="1">
         <v>958.54570760523234</v>
       </c>
-      <c r="JL1" s="2">
+      <c r="JL1" s="1">
         <v>275.05503087993156</v>
       </c>
-      <c r="JM1" s="2">
+      <c r="JM1" s="1">
         <v>355.09451796284725</v>
       </c>
-      <c r="JN1" s="2">
+      <c r="JN1" s="1">
         <v>0.25086189091929512</v>
       </c>
-      <c r="JO1" s="2">
+      <c r="JO1" s="1">
         <v>5.3988200837587845</v>
       </c>
-      <c r="JP1" s="2">
+      <c r="JP1" s="1">
         <v>1.2497781050332251</v>
       </c>
-      <c r="JQ1" s="2" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="JR1" s="2" t="s">
+      <c r="JR1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="JT1" s="2">
+      <c r="JT1" s="1">
         <v>8</v>
       </c>
-      <c r="JU1" s="2">
+      <c r="JU1" s="1">
         <v>3497.3753360826304</v>
       </c>
-      <c r="JV1" s="2">
+      <c r="JV1" s="1">
         <v>1306.0689658311023</v>
       </c>
-      <c r="JW1" s="2">
+      <c r="JW1" s="1">
         <v>0.83665969291991815</v>
       </c>
-      <c r="JX1" s="2">
+      <c r="JX1" s="1">
         <v>5</v>
       </c>
-      <c r="JY1" s="2">
+      <c r="JY1" s="1">
         <v>2519.4416999999999</v>
       </c>
-      <c r="JZ1" s="2">
+      <c r="JZ1" s="1">
         <v>401.50912552628455</v>
       </c>
-      <c r="KA1" s="2">
+      <c r="KA1" s="1">
         <v>8</v>
       </c>
-      <c r="KB1" s="2">
+      <c r="KB1" s="1">
         <v>1656.9663000000003</v>
       </c>
-      <c r="KC1" s="2">
+      <c r="KC1" s="1">
         <v>310.45224402712313</v>
       </c>
-      <c r="KD1" s="2">
+      <c r="KD1" s="1">
         <v>3409.6364799999997</v>
       </c>
-      <c r="KE1" s="2">
+      <c r="KE1" s="1">
         <v>448.54296860375797</v>
       </c>
-      <c r="KF1" s="2">
+      <c r="KF1" s="1">
         <v>5</v>
       </c>
-      <c r="KG1" s="2">
+      <c r="KG1" s="1">
         <v>3409.6364799999997</v>
       </c>
-      <c r="KH1" s="2">
+      <c r="KH1" s="1">
         <v>448.54296860375797</v>
       </c>
-      <c r="KI1" s="2">
+      <c r="KI1" s="1">
         <v>1.4203002217100129</v>
       </c>
-      <c r="KJ1" s="2">
+      <c r="KJ1" s="1">
         <v>1100.5825977804082</v>
       </c>
-      <c r="KK1" s="2">
+      <c r="KK1" s="1">
         <v>0.91649427022645202</v>
       </c>
-      <c r="KL1" s="2">
+      <c r="KL1" s="1">
         <v>0.82039144239388961</v>
       </c>
-      <c r="KM1" s="2">
+      <c r="KM1" s="1">
         <v>0.67304211875312669</v>
       </c>
-      <c r="KN1" s="2">
+      <c r="KN1" s="1">
         <v>3409.6364799999997</v>
       </c>
-      <c r="KO1" s="2">
+      <c r="KO1" s="1">
         <v>367.98081298847092</v>
       </c>
-      <c r="KP1" s="2">
+      <c r="KP1" s="1">
         <v>229.40081247670165</v>
       </c>
-      <c r="KQ1" s="2">
+      <c r="KQ1" s="1">
         <v>296.15517544290537</v>
       </c>
-      <c r="KR1" s="2">
+      <c r="KR1" s="1">
         <v>0.36880254596295503</v>
       </c>
-      <c r="KS1" s="2">
+      <c r="KS1" s="1">
         <v>2.4850540763851203</v>
       </c>
-      <c r="KT1" s="2">
+      <c r="KT1" s="1">
         <v>1.2497781050332251</v>
       </c>
-      <c r="KU1" s="2" t="s">
+      <c r="KU1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="KV1" s="2" t="s">
+      <c r="KV1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="KX1" s="2">
+      <c r="KX1" s="1">
         <v>8</v>
       </c>
-      <c r="KY1" s="2">
+      <c r="KY1" s="1">
         <v>2619.1827176887327</v>
       </c>
-      <c r="KZ1" s="2">
+      <c r="KZ1" s="1">
         <v>284.52770282979895</v>
       </c>
-      <c r="LA1" s="2">
+      <c r="LA1" s="1">
         <v>-0.29072125647119484</v>
       </c>
-      <c r="LB1" s="2">
+      <c r="LB1" s="1">
         <v>4</v>
       </c>
-      <c r="LC1" s="2">
+      <c r="LC1" s="1">
         <v>1512.9146499999999</v>
       </c>
-      <c r="LD1" s="2">
+      <c r="LD1" s="1">
         <v>325.79505097994257</v>
       </c>
-      <c r="LE1" s="2">
+      <c r="LE1" s="1">
         <v>7</v>
       </c>
-      <c r="LF1" s="2">
+      <c r="LF1" s="1">
         <v>970.21488571428574</v>
       </c>
-      <c r="LG1" s="2">
+      <c r="LG1" s="1">
         <v>244.24834821155102</v>
       </c>
-      <c r="LH1" s="2">
+      <c r="LH1" s="1">
         <v>2286.4796000000001</v>
       </c>
-      <c r="LI1" s="2">
+      <c r="LI1" s="1">
         <v>266.16436656315784</v>
       </c>
-      <c r="LJ1" s="2">
+      <c r="LJ1" s="1">
         <v>5</v>
       </c>
-      <c r="LK1" s="2">
+      <c r="LK1" s="1">
         <v>2338.54648</v>
       </c>
-      <c r="LL1" s="2">
+      <c r="LL1" s="1">
         <v>258.23904136603159</v>
       </c>
-      <c r="LM1" s="2">
+      <c r="LM1" s="1">
         <v>-1.1656846104724865</v>
       </c>
-      <c r="LN1" s="2">
+      <c r="LN1" s="1">
         <v>1292.9934351102888</v>
       </c>
-      <c r="LO1" s="2">
+      <c r="LO1" s="1">
         <v>0.6566703315945227</v>
       </c>
-      <c r="LP1" s="2">
+      <c r="LP1" s="1">
         <v>0.80378882763815707</v>
       </c>
-      <c r="LQ1" s="2">
+      <c r="LQ1" s="1">
         <v>0.64607647943592295</v>
       </c>
-      <c r="LR1" s="2">
+      <c r="LR1" s="1">
         <v>2286.4796000000001</v>
       </c>
-      <c r="LS1" s="2">
+      <c r="LS1" s="1">
         <v>213.93994415885331</v>
       </c>
-      <c r="LT1" s="2">
+      <c r="LT1" s="1">
         <v>137.13087814549567</v>
       </c>
-      <c r="LU1" s="2">
+      <c r="LU1" s="1">
         <v>193.93234769349226</v>
       </c>
-      <c r="LV1" s="2">
+      <c r="LV1" s="1">
         <v>0.34367278695190207</v>
       </c>
-      <c r="LW1" s="2">
+      <c r="LW1" s="1">
         <v>1.9107428825501551</v>
       </c>
-      <c r="LX1" s="2">
+      <c r="LX1" s="1">
         <v>1.3862065601673439</v>
       </c>
-      <c r="LY1" s="2" t="s">
+      <c r="LY1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="LZ1" s="2" t="s">
+      <c r="LZ1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="MB1" s="2">
+      <c r="MB1" s="1">
         <v>7</v>
       </c>
-      <c r="MC1" s="2">
+      <c r="MC1" s="1">
         <v>1930.1047658302307</v>
       </c>
-      <c r="MD1" s="2">
+      <c r="MD1" s="1">
         <v>160.39064381149416</v>
       </c>
-      <c r="ME1" s="2">
+      <c r="ME1" s="1">
         <v>-0.5682264143926159</v>
       </c>
-      <c r="MF1" s="2">
+      <c r="MF1" s="1">
         <v>2</v>
       </c>
-      <c r="MG1" s="2">
+      <c r="MG1" s="1">
         <v>1312.0852500000001</v>
       </c>
-      <c r="MH1" s="2">
+      <c r="MH1" s="1">
         <v>85.555324329494567</v>
       </c>
-      <c r="MI1" s="2">
+      <c r="MI1" s="1">
         <v>0</v>
       </c>
-      <c r="ML1" s="2">
+      <c r="ML1" s="1">
         <v>1831.2663499999999</v>
       </c>
-      <c r="MM1" s="2">
+      <c r="MM1" s="1">
         <v>204.07038065433466</v>
       </c>
-      <c r="MN1" s="2">
+      <c r="MN1" s="1">
         <v>5</v>
       </c>
-      <c r="MO1" s="2">
+      <c r="MO1" s="1">
         <v>1902.3748399999997</v>
       </c>
-      <c r="MP1" s="2">
+      <c r="MP1" s="1">
         <v>252.77889886109668</v>
       </c>
-      <c r="MQ1" s="2">
+      <c r="MQ1" s="1">
         <v>0.44578025733895271</v>
       </c>
-      <c r="MR1" s="2">
+      <c r="MR1" s="1">
         <v>-1298.3779885245517</v>
       </c>
-      <c r="MS1" s="2">
+      <c r="MS1" s="1">
         <v>2.3852446619032959</v>
       </c>
-      <c r="MT1" s="2">
+      <c r="MT1" s="1">
         <v>0.9999999999999627</v>
       </c>
-      <c r="MU1" s="2">
+      <c r="MU1" s="1">
         <v>0.99999999999992539</v>
       </c>
-      <c r="MV1" s="2">
+      <c r="MV1" s="1">
         <v>1831.2663499999999</v>
       </c>
-      <c r="MW1" s="2">
+      <c r="MW1" s="1">
         <v>204.07038065433224</v>
       </c>
-      <c r="MX1" s="2">
+      <c r="MX1" s="1">
         <v>1.7090879257890388E-12</v>
       </c>
-      <c r="NC1" s="2" t="s">
+      <c r="NC1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="ND1" s="2" t="s">
+      <c r="ND1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="NF1" s="2">
+      <c r="NF1" s="1">
         <v>0</v>
       </c>
     </row>
